--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>714900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>777200</v>
+      </c>
+      <c r="F8" s="3">
         <v>610100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>436200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>351900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>283200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>204900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>183800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>155000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>124600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>94100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>101500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>93900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>88500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>508100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>512400</v>
+      </c>
+      <c r="F9" s="3">
         <v>407000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>338700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>312400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>291200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>199300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>175200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>146500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>101100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>83300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>75700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>66800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>63200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>264800</v>
+      </c>
+      <c r="F10" s="3">
         <v>203100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>97500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>39500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-8000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>25800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>27100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>25300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F12" s="3">
         <v>43600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>35100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>28500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>26600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>17300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,16 +1052,22 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -1045,20 +1090,26 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>982600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1007300</v>
+      </c>
+      <c r="F17" s="3">
         <v>797600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>670700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>591100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>608200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>451100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>403300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>353100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>315700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>254800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>184000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>162000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-267700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-230100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-187500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-234500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-239200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-325000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-246200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-219500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-198100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-191100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-160700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-82500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-68100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>20600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-19100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-432700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>62900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>40800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-27800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-9600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-53200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>34300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-193600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-193500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-108900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-250100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-646400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-287600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-171100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-244000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-193200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="3">
         <v>-73900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-59400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F22" s="3">
         <v>10800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-256500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-245200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-177700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-263700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-682000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-272000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-215300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-250300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-216300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-253400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-134900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-89700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-70500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-68000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F24" s="3">
         <v>27400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>15300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-279700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-205000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-279000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-689200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-275000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-217300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-250100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-215600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-262200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-132800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-91900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-72400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-283800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-207600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-281100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-690400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-276600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-218300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-250700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-215600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-262700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-132700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-92100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-73100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-20600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>19100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>432700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-62900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-40800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>27800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>9600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>53200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-34300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-283800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-207600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-281100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-690400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-276600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-218300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-250700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-215600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-262700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-132700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-92100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-73100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-283800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-207600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-281100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-690400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-276600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-218300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-250700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-215600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-262700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-132700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-92100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-73100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2599700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3119000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2297200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2308100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2362500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1002800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1209200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1477100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1172400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1347400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>581500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>651100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>456800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>170100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>102300</v>
+      </c>
+      <c r="F42" s="3">
         <v>9400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>18000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>191800</v>
+      </c>
+      <c r="F43" s="3">
         <v>140500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>152700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>151500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>103000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>66500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>61000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>73100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>64100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>59200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>47900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>43200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>37800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F44" s="3">
         <v>21400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>22500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>25900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>37700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>19600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>16900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>9800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1222600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>970100</v>
+      </c>
+      <c r="F45" s="3">
         <v>849300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>757500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>652000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>566500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>513100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>424200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>383400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>281500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>218800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>163600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>122800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>98100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4050600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4410100</v>
+      </c>
+      <c r="F46" s="3">
         <v>3317800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3249700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3192500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1710700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1808500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1979300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1642300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1720700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>866800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>868200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>628600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>309900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>113800</v>
+      </c>
+      <c r="F47" s="3">
         <v>99100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>100400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>107100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>111000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>118200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>71000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>58500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>28200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>27100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>45100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>45400</v>
       </c>
       <c r="O47" s="3">
         <v>45100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>45400</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>45100</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>486900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>501600</v>
+      </c>
+      <c r="F48" s="3">
         <v>463100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>425900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>406300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>192400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>147400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>121900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>93900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>74300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>47900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>34100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>32400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>31100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>263300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F49" s="3">
         <v>45900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>43800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>44900</v>
       </c>
       <c r="G49" s="3">
         <v>43800</v>
       </c>
       <c r="H49" s="3">
+        <v>44900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J49" s="3">
         <v>56600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>60500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>64600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>68300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>73000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>24300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>27200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>30000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>152700</v>
+      </c>
+      <c r="F52" s="3">
         <v>156000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>199200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>176100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>134700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>121800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>122600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>111100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>96700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>106400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>92500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>78900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>69700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5232800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5224200</v>
+      </c>
+      <c r="F54" s="3">
         <v>4081900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4019100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3927000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2192700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2252400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2355400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1970500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1988300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1121200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1064200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>812400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>485800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,81 +2878,89 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>69400</v>
+      </c>
+      <c r="F57" s="3">
         <v>48100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>38100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>25200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>33900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F58" s="3">
         <v>24000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>25800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="3">
         <v>2000</v>
@@ -2702,189 +2969,219 @@
         <v>2000</v>
       </c>
       <c r="O58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2375300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2262300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1979600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1663600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1371000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1148500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>921400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>744000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>738400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>627000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>438500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>323700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>276700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>255900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2428600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2362400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2051700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1721800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1410100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1186500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>946500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>777900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>752300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>637700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>449800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>333800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>288100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>263800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1374800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1356700</v>
+      </c>
+      <c r="F61" s="3">
         <v>446600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>439600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>582700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1062800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1116400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1145800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>745700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>727000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>674400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>624800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>355000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>462400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>332500</v>
+      </c>
+      <c r="F62" s="3">
         <v>324100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>418800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>182800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>161300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>177900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>148500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>208100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>179600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>157100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>142600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4312200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4061700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2829400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2585700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2397500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2435800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2227300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2126800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1681400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1519300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1340700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1138200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>406400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3195,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>205100</v>
@@ -3207,10 +3542,16 @@
         <v>205100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>205100</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3812100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3530500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-843800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-670100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-578000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-505000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>920600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1162400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1252500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1433400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1529500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-243100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>25100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>228600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>289100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>469000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-424600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-279000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-192800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-125700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-283800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-207600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-281100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-690400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-276600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-218300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-250700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-215600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-262700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-132700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-92100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-73100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>38200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-223700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F89" s="3">
         <v>380800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-265300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-17800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-324400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>112300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-188800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-94400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-38200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-89800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-65400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-65800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-42100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-50100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M91" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-157700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>29400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-91300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-157100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-40000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-21800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-51100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-50100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>12900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="F100" s="3">
         <v>989800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-983100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1527900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-149800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>151700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>545300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>927400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>69500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>270000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>357000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F101" s="3">
         <v>12900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-12900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-16800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>15300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-17300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-447300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>896700</v>
+      </c>
+      <c r="F102" s="3">
         <v>1225800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1420700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-648000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>273600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>299300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-110600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>842800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-69600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>194300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>286700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-31900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E8" s="3">
         <v>714900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>777200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>610100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>436200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>351900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>283200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>204900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>183800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>124600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>93900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>681200</v>
+      </c>
+      <c r="E9" s="3">
         <v>508100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>512400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>407000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>338700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>312400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>291200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>199300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>175200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>146500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>66800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>63200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E10" s="3">
         <v>206800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>264800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>203100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>97500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-8000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E12" s="3">
         <v>63900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,20 +1078,23 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1096,20 +1119,23 @@
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
         <v>2100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1254800</v>
+      </c>
+      <c r="E17" s="3">
         <v>982600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1007300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>797600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>670700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>591100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>608200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>451100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>403300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>353100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>315700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>254800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>184000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>162000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-372800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-267700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-230100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-187500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-234500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-239200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-325000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-246200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-219500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-198100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-191100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-160700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-82500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E20" s="3">
         <v>35900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-432700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>62900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>40800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-53200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-318400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-193600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-193500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-108900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-250100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-646400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-287600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-171100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-244000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-193200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="3">
         <v>-73900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-59400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E22" s="3">
         <v>24600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9900</v>
       </c>
       <c r="J22" s="3">
         <v>9900</v>
       </c>
       <c r="K22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-365200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-256500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-245200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-177700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-263700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-682000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-272000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-215300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-250300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-216300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-253400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-134900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-89700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-68000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E24" s="3">
         <v>23200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-279700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-281200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-205000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-279000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-689200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-275000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-217300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-250100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-215600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-262200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-132800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-91900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-281500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-283800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-207600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-281100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-690400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-276600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-218300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-250700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-215600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-262700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-132700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-92100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-20600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>432700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-62900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-40800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>53200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-281500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-283800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-207600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-281100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-690400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-276600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-218300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-250700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-215600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-262700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-132700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-92100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-281500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-283800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-207600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-281100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-690400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-276600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-218300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-250700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-215600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-262700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-132700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-92100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,82 +2226,86 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3432800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2599700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3119000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2297200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2308100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2362500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1002800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1209200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1477100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1172400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1347400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>581500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>651100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>456800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>170100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E42" s="3">
         <v>30500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
@@ -2223,375 +2313,399 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>18000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>254600</v>
+      </c>
+      <c r="E43" s="3">
         <v>163600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>191800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>140500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>152700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>151500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>103000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E44" s="3">
         <v>34200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>26900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>25900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>37700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1487700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1222600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>970100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>849300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>757500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>652000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>566500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>513100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>424200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>383400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>281500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>218800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>163600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>122800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>98100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5251000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4050600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4410100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3317800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3249700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3192500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1710700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1808500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1979300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1642300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1720700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>866800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>868200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>628600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>309900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E47" s="3">
         <v>143200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>113800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>99100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>107100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>111000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>58500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>45100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>45400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>45100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>523500</v>
+      </c>
+      <c r="E48" s="3">
         <v>486900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>501600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>463100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>425900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>406300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>192400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>147400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>260500</v>
+      </c>
+      <c r="E49" s="3">
         <v>263300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>43800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>73000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>374100</v>
+      </c>
+      <c r="E52" s="3">
         <v>288900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>152700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>156000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>199200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>176100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>134700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>121800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>122600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>111100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>96700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>92500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6604300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5232800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5224200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4081900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4019100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3927000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2192700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2252400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2355400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1970500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1988300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1121200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1064200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>812400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>485800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,90 +3010,94 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E57" s="3">
         <v>51000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2000</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N58" s="3">
         <v>2000</v>
@@ -2975,213 +3109,228 @@
         <v>2000</v>
       </c>
       <c r="Q58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2890200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2375300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2262300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1979600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1663600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1371000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1148500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>921400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>744000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>738400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>627000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>438500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>323700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>276700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>255900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2986900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2428600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2362400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2051700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1721800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1410100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1186500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>946500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>777900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>752300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>637700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>449800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>333800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>288100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>263800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2109200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1374800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1356700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>446600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>439600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>582700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1062800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1116400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1145800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>745700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>727000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>674400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>624800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>355000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>615700</v>
+      </c>
+      <c r="E62" s="3">
         <v>462400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>332500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>324100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>418800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>182800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>161300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>177900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>148500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>208100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>179600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>157100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>142600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5750500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4312200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4061700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2829400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2585700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2397500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2435800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2227300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2126800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1681400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1519300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1340700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1138200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>406400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3536,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>205100</v>
@@ -3548,10 +3716,13 @@
         <v>205100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4205000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-843800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-670100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-578000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-505000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>853800</v>
+      </c>
+      <c r="E76" s="3">
         <v>920600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1162400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1252500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1433400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1529500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-243100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>289100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>469000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-424600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-279000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-192800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-125700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-281500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-283800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-207600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-281100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-690400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-276600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-218300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-250700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-215600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-262700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-132700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-92100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,20 +4223,21 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="3">
         <v>38200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34600</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4051,32 +4250,35 @@
       <c r="J83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>11</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P83" s="3">
         <v>9000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>298100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-223700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>380800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-265300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-324400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-188800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-94400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-89800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-65400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-42100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,20 +4615,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4421,32 +4642,35 @@
       <c r="J91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-163700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-147100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-143700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-157700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>29400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-157100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>811600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-24800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1045000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>989800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-983100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1527900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-149800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>151700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>545300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>927400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>69500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>270000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>357000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-51800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>23200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1006400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-447300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>896700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1225800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1420700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-648000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>273600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>299300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-110600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>842800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-69600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>194300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>286700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1566600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1212200</v>
+      </c>
+      <c r="F8" s="3">
         <v>882000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>714900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>777200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>610100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>436200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>351900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>283200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>204900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>183800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>155000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>124600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>94100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>101500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>93900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>88500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1032800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>804600</v>
+      </c>
+      <c r="F9" s="3">
         <v>681200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>508100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>512400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>407000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>338700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>312400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>291200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>199300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>175200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>146500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>101100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>83300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>75700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>66800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>63200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>533800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>407600</v>
+      </c>
+      <c r="F10" s="3">
         <v>200800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>206800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>264800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>203100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>97500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>39500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-8000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>23500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>27100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>25300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>104300</v>
+      </c>
+      <c r="F12" s="3">
         <v>75300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>63900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>48800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>43600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>35100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>28500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>26600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>17300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,26 +1120,32 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>11000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1122,20 +1167,26 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
         <v>2100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1923900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1254800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>982600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1007300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>797600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>670700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>591100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>608200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>451100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>403300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>353100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>315700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>254800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>184000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>162000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-357300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-305400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-372800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-267700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-230100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-187500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-234500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-239200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-325000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-246200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-219500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-198100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-191100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-160700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-82500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-68100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1344,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F20" s="3">
         <v>51000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>35900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>20600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-19100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-432700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>62900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>40800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-27800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-9600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-53200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>34300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-441500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-328600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-318400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-193600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-193500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-108900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-250100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-646400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-287600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-171100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-244000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-193200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-59400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F22" s="3">
         <v>43300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>24600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>17200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>10200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-481800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-379800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-365200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-256500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-245200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-177700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-263700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-682000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-272000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-215300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-250300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-216300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-253400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-134900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-70500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-68000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F24" s="3">
         <v>27800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>23200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>27400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>15300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-526000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-426200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-393000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-279700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-281200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-205000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-279000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-689200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-275000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-217300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-250100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-215600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-262200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-132800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-72400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-523600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-393000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-281500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-283800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-207600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-281100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-690400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-276600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-218300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-250700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-215600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-262700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-132700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-73100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-51000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-35900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-20600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>19100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>432700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-62900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-40800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>27800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>9600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>53200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-34300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-523600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-393000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-281500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-283800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-207600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-281100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-690400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-276600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-218300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-250700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-215600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-262700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-132700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-73100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-523600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-393000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-281500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-283800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-207600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-281100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-690400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-276600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-218300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-250700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-215600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-262700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-132700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-73100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2398,541 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6166900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3509000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3432800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2599700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3119000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2297200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2308100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2362500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1002800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1209200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1477100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1172400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1347400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>581500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>651100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>456800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>170100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F42" s="3">
         <v>14700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>30500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>102300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>9400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>18000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>668400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>295900</v>
+      </c>
+      <c r="F43" s="3">
         <v>254600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>163600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>191800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>140500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>152700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>151500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>103000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>66500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>61000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>73100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>64100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>59200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>47900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>43200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>37800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F44" s="3">
         <v>61200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>34200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>26900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>21400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>22500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>25900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>37700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>13400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>9800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>7300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>5900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1913400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1654200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1487700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1222600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>970100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>849300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>757500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>652000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>566500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>513100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>424200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>383400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>281500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>218800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>163600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>122800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>98100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8939000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5563100</v>
+      </c>
+      <c r="F46" s="3">
         <v>5251000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4050600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4410100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3317800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3249700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3192500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1710700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1808500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1979300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1642300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1720700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>866800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>868200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>628600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>309900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>219100</v>
+      </c>
+      <c r="F47" s="3">
         <v>195200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>143200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>113800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>99100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>100400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>107100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>111000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>118200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>71000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>58500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>28200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>27100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>45100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>45400</v>
       </c>
       <c r="R47" s="3">
         <v>45100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>45400</v>
+      </c>
+      <c r="T47" s="3">
+        <v>45100</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>573400</v>
+      </c>
+      <c r="F48" s="3">
         <v>523500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>486900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>501600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>463100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>425900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>406300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>192400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>147400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>121900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>93900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>74300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>47900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>34100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>32400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>31100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>256100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>244000</v>
+      </c>
+      <c r="F49" s="3">
         <v>260500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>263300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>46000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>45900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>43800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>44900</v>
       </c>
       <c r="J49" s="3">
         <v>43800</v>
       </c>
       <c r="K49" s="3">
+        <v>44900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>43800</v>
+      </c>
+      <c r="M49" s="3">
         <v>56600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>60500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>64600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>68300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>73000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>24300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>27200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>30000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>360900</v>
+      </c>
+      <c r="F52" s="3">
         <v>374100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>288900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>152700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>156000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>199200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>176100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>134700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>121800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>122600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>111100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>96700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>106400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>92500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>78900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>69700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10455700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6960600</v>
+      </c>
+      <c r="F54" s="3">
         <v>6604300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5232800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5224200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4081900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4019100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3927000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2192700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2252400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2355400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1970500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1988300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1121200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1064200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>812400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>485800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3270,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F57" s="3">
         <v>96700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>51000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>69400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>32400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>38100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>37200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,37 +3340,37 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>30700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>24000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>25800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P58" s="3">
         <v>2000</v>
@@ -3112,225 +3379,255 @@
         <v>2000</v>
       </c>
       <c r="R58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4514400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3654100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2890200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2375300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2262300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1979600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1663600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1371000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1148500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>921400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>744000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>738400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>627000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>438500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>323700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>276700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>255900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4636100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3772500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2986900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2428600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2362400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2051700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1721800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1410100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1186500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>946500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>777900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>752300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>637700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>449800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>333800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>288100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>263800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1840400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1920900</v>
+      </c>
+      <c r="F61" s="3">
         <v>2109200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1374800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1356700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>446600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>439600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>582700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1062800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1116400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1145800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>745700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>727000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>674400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>624800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>355000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>494400</v>
+      </c>
+      <c r="F62" s="3">
         <v>615700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>462400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>332500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>324100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>418800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>182800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>161300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>200200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>177900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>148500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>208100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>179600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>157100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>142600</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7072800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6219300</v>
+      </c>
+      <c r="F66" s="3">
         <v>5750500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4312200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4061700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2829400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2585700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2397500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2435800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2227300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2126800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1681400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1519300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1340700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1138200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>406400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3707,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>205100</v>
@@ -3719,10 +4054,16 @@
         <v>205100</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="T70" s="3">
+        <v>205100</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5148600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4625000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-843800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-670100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-578000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-505000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3382900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>741200</v>
+      </c>
+      <c r="F76" s="3">
         <v>853800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>920600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1162400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1252500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1433400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1529500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-243100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>25100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>228600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>289100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>469000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-424600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-279000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-192800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-125700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-523600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-393000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-281500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-283800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-207600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-281100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-690400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-276600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-218300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-250700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-215600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-262700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-132700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-73100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,26 +4619,28 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3">
         <v>38200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>34600</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4253,32 +4650,38 @@
       <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" s="3">
         <v>9000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>458200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F89" s="3">
         <v>298100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-223700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-27800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>380800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-265300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-17800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-324400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>112300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-188800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-94400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-38200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-89800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-65800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-42100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,26 +5055,28 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3">
         <v>-50100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-42400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4645,32 +5086,38 @@
       <c r="K91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-667400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>91300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-163700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-147100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-143700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-157700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>29400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-91300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-157100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-40000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-21800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-51100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-50100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>12900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2198600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>747700</v>
+      </c>
+      <c r="F100" s="3">
         <v>811600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-24800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1045000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>989800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-983100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1527900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-149800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>151700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>545300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>927400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>69500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>270000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>357000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F101" s="3">
         <v>60500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-51800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>23200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>12900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-12900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-16800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>15300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-17300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2068300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>855400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1006400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-447300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>896700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1225800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1420700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-648000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>273600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>299300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-110600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>842800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-69600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>194300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>286700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-31900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1763600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1566600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1212200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>882000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>714900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>777200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>610100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>436200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>351900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>283200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>204900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>183800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>155000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>124600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>93900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>88500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1118200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1032800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>804600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>681200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>508100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>512400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>407000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>338700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>312400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>291200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>199300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>175200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>101100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>83300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>66800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>645400</v>
+      </c>
+      <c r="E10" s="3">
         <v>533800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>407600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>206800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>264800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>203100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E12" s="3">
         <v>109500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>104300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>75300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>63900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>48800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,15 +1163,15 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <v>11000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1173,20 +1196,23 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="3">
         <v>2100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2112100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1923900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1517600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1254800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>982600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1007300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>797600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>670700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>591100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>608200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>451100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>403300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>353100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>315700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>254800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>184000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>162000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-348500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-357300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-305400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-372800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-267700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-230100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-187500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-234500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-239200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-325000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-246200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-219500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-198100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-191100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-160700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-82500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-68100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-89600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-28900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>51000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>35900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-432700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-441500</v>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="3">
+        <v>-441000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-328600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-318400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-193600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-193500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-108900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-250100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-646400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-287600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-171100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-244000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-193200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="3">
         <v>-73900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-59400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E22" s="3">
         <v>34900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9900</v>
       </c>
       <c r="M22" s="3">
         <v>9900</v>
       </c>
       <c r="N22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-371700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-481800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-379800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-365200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-256500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-245200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-177700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-263700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-682000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-272000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-215300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-250300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-216300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-253400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-134900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-89700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-70500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-68000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E24" s="3">
         <v>44200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-526000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-426200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-393000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-279700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-281200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-205000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-279000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-689200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-275000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-217300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-250100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-215600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-262200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-132800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-91900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-72400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-523600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-420000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-393000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-281500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-283800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-207600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-281100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-690400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-276600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-218300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-250700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-215600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-262700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-132700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-92100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-73100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>89600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>28900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-51000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-35900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>432700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>53200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-523600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-420000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-393000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-281500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-283800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-207600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-281100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-690400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-276600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-218300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-250700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-215600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-262700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-132700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-92100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-73100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-523600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-420000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-393000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-281500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-283800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-207600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-281100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-690400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-276600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-218300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-250700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-215600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-262700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-132700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-92100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-73100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,100 +2486,104 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5752600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6166900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3509000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3432800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2599700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3119000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2297200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2308100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2362500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1002800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1209200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1477100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1172400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1347400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>581500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>651100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>456800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>170100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>309700</v>
+      </c>
+      <c r="E42" s="3">
         <v>126100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>42300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>30500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2501,438 +2591,462 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>18000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>795400</v>
+      </c>
+      <c r="E43" s="3">
         <v>668400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>295900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>254600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>163600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>191800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>140500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>152700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>151500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>73100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>64100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>43200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>37800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E44" s="3">
         <v>64200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>21400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2075600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1913400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1654200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1487700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1222600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>970100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>849300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>757500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>652000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>566500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>513100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>424200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>383400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>281500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>218800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>163600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>122800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>98100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9025900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8939000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5563100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5251000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4050600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4410100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3317800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3249700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3192500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1710700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1808500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1979300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1642300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1720700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>866800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>868200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>628600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>309900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>353500</v>
+      </c>
+      <c r="E47" s="3">
         <v>307600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>219100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>195200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>143200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>113800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>99100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>107100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>118200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>58500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>45100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>45400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>45100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>628600</v>
+      </c>
+      <c r="E48" s="3">
         <v>621000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>573400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>523500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>486900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>501600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>463100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>425900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>406300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>192400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>147400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>121900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>93900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>509300</v>
+      </c>
+      <c r="E49" s="3">
         <v>256100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>244000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>260500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>263300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>43800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>68300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>73000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>405300</v>
+      </c>
+      <c r="E52" s="3">
         <v>332000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>360900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>374100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>288900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>152700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>156000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>199200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>176100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>134700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>122600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>111100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>106400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>92500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>78900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69700</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10922600</v>
+      </c>
+      <c r="E54" s="3">
         <v>10455700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6960600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6604300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5232800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5224200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4081900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4019100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3927000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2192700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2252400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2355400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1970500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1988300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1121200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1064200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>812400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>485800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,72 +3402,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E57" s="3">
         <v>121600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3346,34 +3480,34 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2000</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q58" s="3">
         <v>2000</v>
@@ -3385,249 +3519,264 @@
         <v>2000</v>
       </c>
       <c r="T58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U58" s="3">
         <v>1900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4924700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4514400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3654100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2890200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2375300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2262300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1979600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1663600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1371000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1148500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>921400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>744000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>738400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>627000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>438500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>323700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>276700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>255900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5077600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4636100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3772500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2986900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2428600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2362400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2051700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1721800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1410100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1186500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>946500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>777900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>752300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>637700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>449800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>333800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>288100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>263800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1757600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1840400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1920900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2109200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1374800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1356700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>446600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>439600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>582700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1062800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1116400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1145800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>745700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>727000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>674400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>624800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>355000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E62" s="3">
         <v>559000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>494400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>615700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>462400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>332500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>324100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>418800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>182800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>161300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>177900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>148500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>208100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>179600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>157100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>142600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7518900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7072800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6219300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5750500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4312200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4061700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2829400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2585700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2397500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2435800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2227300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2126800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1681400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1519300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1340700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1138200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>406400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4048,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>205100</v>
@@ -4060,10 +4228,13 @@
         <v>205100</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5571300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-843800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-670100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-578000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-505000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3403700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3382900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>741200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>853800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>920600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1162400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1252500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1433400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1529500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-243100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>228600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>289100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>469000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-424600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-279000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-192800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-125700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-523600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-420000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-393000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-281500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-283800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-207600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-281100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-690400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-276600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-218300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-250700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-215600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-262700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-132700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-92100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-73100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4635,15 +4834,15 @@
       <c r="F83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3">
         <v>38200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4656,32 +4855,35 @@
       <c r="M83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>11</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S83" s="3">
         <v>9000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>318300</v>
+      </c>
+      <c r="E89" s="3">
         <v>458200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>298100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-223700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>380800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-265300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-324400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>112300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-188800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-94400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-89800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-65400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-65800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-42100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5071,15 +5292,15 @@
       <c r="F91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="3">
         <v>-50100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5092,32 +5313,35 @@
       <c r="M91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>11</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-504300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-667400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>91300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-163700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-147100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-143700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-157700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-91300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>12900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2198600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>747700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>811600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1045000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>989800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-983100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1527900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-149800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>151700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>545300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>927400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>69500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>270000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>357000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E101" s="3">
         <v>78900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>60500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-51800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>23200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-190800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2068300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>855400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1006400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-447300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>896700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1225800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1420700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-648000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>273600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>299300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-110600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>842800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-69600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>194300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>286700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-31900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2280500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1763600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1566600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1212200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>882000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>714900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>777200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>610100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>436200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>351900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>283200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>204900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>183800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>155000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>124600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>93900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>88500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1349700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1118200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1032800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>804600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>681200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>508100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>512400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>407000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>338700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>312400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>291200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>199300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>175200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>101100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>83300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>75700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>66800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>63200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>930800</v>
+      </c>
+      <c r="E10" s="3">
         <v>645400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>533800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>407600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>206800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>264800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>203100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-8000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E12" s="3">
         <v>141100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>109500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>104300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>75300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>63900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>48800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,15 +1189,15 @@
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
         <v>11000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1199,20 +1222,23 @@
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
         <v>2100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2614600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2112100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1923900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1517600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1254800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>982600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1007300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>797600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>670700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>591100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>608200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>451100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>403300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>353100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>315700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>254800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>184000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>162000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-334100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-348500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-357300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-305400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-372800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-267700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-230100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-187500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-234500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-239200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-325000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-246200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-219500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-198100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-191100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-160700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-82500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-68100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-89600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>51000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>35900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-432700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>62900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-53200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+      <c r="D21" s="3">
+        <v>-331200</v>
       </c>
       <c r="E21" s="3">
+        <v>-287800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-441000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-328600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-318400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-193600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-193500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-108900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-250100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-646400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-287600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-171100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-244000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-193200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="3">
         <v>-73900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-59400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E22" s="3">
         <v>26900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>9900</v>
       </c>
       <c r="N22" s="3">
         <v>9900</v>
       </c>
       <c r="O22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-359100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-371700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-481800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-379800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-365200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-256500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-245200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-177700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-263700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-682000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-272000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-215300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-250300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-216300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-253400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-134900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-89700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-70500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-68000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E24" s="3">
         <v>51000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-434300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-422700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-526000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-426200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-393000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-279700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-281200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-205000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-279000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-689200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-275000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-217300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-250100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-215600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-262200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-132800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-91900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-72400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-433400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-422700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-523600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-420000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-393000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-281500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-283800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-207600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-281100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-690400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-276600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-218300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-250700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-215600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-262700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-132700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-92100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-73100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>89600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-51000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-35900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>432700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-62900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>53200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-433400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-422700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-523600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-420000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-393000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-281500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-283800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-207600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-281100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-690400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-276600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-218300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-250700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-215600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-262700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-132700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-92100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-73100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-433400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-422700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-523600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-420000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-393000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-281500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-283800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-207600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-281100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-690400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-276600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-218300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-250700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-215600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-262700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-132700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-92100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-73100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,106 +2573,110 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4645400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5752600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6166900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3509000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3432800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2599700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3119000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2297200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2308100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2362500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1002800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1209200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1477100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1172400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1347400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>581500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>651100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>456800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>170100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>962100</v>
+      </c>
+      <c r="E42" s="3">
         <v>309700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>126100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>42300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2594,459 +2684,483 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>18000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="E43" s="3">
         <v>795400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>668400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>295900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>254600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>163600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>191800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>140500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>151500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>103000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>66500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>73100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>64100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>59200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>43200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>37800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E44" s="3">
         <v>92700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>64200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>34200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>26900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>25900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3900</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2530900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2075600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1913400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1654200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1487700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1222600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>970100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>849300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>757500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>652000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>566500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>513100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>424200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>383400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>281500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>218800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>163600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>122800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>98100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9397100</v>
+      </c>
+      <c r="E46" s="3">
         <v>9025900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8939000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5563100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5251000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4050600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4410100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3317800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3249700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3192500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1710700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1808500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1979300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1642300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1720700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>866800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>868200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>628600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>309900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E47" s="3">
         <v>353500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>307600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>219100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>195200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>143200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>113800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>99100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>118200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>71000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>58500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>45100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>45400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>45100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>830200</v>
+      </c>
+      <c r="E48" s="3">
         <v>628600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>621000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>573400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>523500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>486900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>501600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>463100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>425900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>406300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>192400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>147400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>121900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>93900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>518500</v>
+      </c>
+      <c r="E49" s="3">
         <v>509300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>256100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>260500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>263300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>68300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>73000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>445400</v>
+      </c>
+      <c r="E52" s="3">
         <v>405300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>332000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>360900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>374100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>288900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>152700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>156000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>199200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>134700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>122600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>111100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>96700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>106400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>92500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>78900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69700</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11523000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10922600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10455700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6960600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6604300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5232800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5224200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4081900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4019100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3927000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2192700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2252400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2355400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1970500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1988300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1121200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1064200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>812400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>485800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,78 +3533,82 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E57" s="3">
         <v>152900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>121600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>118400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>96700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3483,34 +3617,34 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>30700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2000</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R58" s="3">
         <v>2000</v>
@@ -3522,261 +3656,276 @@
         <v>2000</v>
       </c>
       <c r="U58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V58" s="3">
         <v>1900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5704000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4924700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4514400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3654100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2890200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2375300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2262300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1979600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1663600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1371000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1148500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>921400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>744000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>738400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>627000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>438500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>323700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>276700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>255900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5883600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5077600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4636100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3772500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2986900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2428600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2362400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2051700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1721800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1410100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1186500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>946500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>777900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>752300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>637700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>449800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>333800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>288100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>263800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1757600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1840400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1920900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2109200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1374800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1356700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>446600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>439600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>582700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1062800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1116400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1145800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>745700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>727000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>674400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>624800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>355000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E62" s="3">
         <v>647000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>559000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>494400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>615700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>462400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>332500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>324100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>418800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>182800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>161300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>177900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>148500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>208100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>179600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>157100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>142600</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7962900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7518900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7072800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6219300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5750500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4312200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4061700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2829400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2585700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2397500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2435800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2227300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2126800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1681400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1519300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1340700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1138200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>406400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4219,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>205100</v>
@@ -4231,10 +4399,13 @@
         <v>205100</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6004700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-843800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-670100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-578000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-505000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3560200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3403700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3382900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>741200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>853800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>920600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1162400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1252500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1433400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1529500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-243100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>228600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>289100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>469000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-424600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-279000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-192800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-125700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-433400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-422700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-523600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-420000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-393000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-281500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-283800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-207600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-281100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-690400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-276600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-218300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-250700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-215600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-262700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-132700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-92100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-73100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4837,15 +5036,15 @@
       <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="3">
         <v>38200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>11</v>
       </c>
@@ -4858,32 +5057,35 @@
       <c r="N83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>11</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T83" s="3">
         <v>9000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E89" s="3">
         <v>318300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>458200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>298100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-223700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>380800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-265300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-324400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>112300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-188800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-94400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-38200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-89800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-65400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-65800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-42100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5295,15 +5516,15 @@
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="3">
         <v>-50100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5316,32 +5537,35 @@
       <c r="N91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T91" s="3">
         <v>-8700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1145500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-504300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-667400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>91300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-163700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-147100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-143700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-157700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>29400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-91300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-157100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>12900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E100" s="3">
         <v>41600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2198600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>747700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>811600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1045000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>989800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-983100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1527900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-149800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>151700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>545300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>927400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>69500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>270000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>357000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-46300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>78900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>60500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-51800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>23200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-859700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-190800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2068300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>855400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1006400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-447300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>896700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1225800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1420700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-648000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>273600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>299300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-110600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>842800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-69600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>194300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>286700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-31900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2688900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2280500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1763600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1566600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1212200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>882000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>714900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>777200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>610100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>436200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>351900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>283200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>204900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>183800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>155000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>124600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>94100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>93900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>88500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1680200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1349700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1118200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1032800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>804600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>681200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>508100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>512400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>407000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>338700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>312400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>291200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>199300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>175200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>83300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>75700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>66800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>63200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1008700</v>
+      </c>
+      <c r="E10" s="3">
         <v>930800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>645400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>533800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>407600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>206800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>264800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>203100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-8000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>25300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>231400</v>
+      </c>
+      <c r="E12" s="3">
         <v>172600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>141100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>109500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>104300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>75300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>63900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>48800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,15 +1215,15 @@
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1225,20 +1248,23 @@
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="3">
         <v>2100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3147400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2614600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2112100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1923900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1517600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1254800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>982600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1007300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>797600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>670700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>591100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>608200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>451100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>403300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>353100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>315700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>254800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>184000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>162000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-458500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-334100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-348500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-357300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-305400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-372800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-267700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-230100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-187500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-234500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-239200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-325000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-246200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-219500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-198100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-191100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-160700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-82500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-68100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-89600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>51000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-432700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>62900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-53200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-420100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-331200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-287800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-441000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-328600</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3">
         <v>-318400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-193600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-193500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-108900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-250100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-646400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-287600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-171100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-193200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="3">
         <v>-73900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-59400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E22" s="3">
         <v>22700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>9900</v>
       </c>
       <c r="O22" s="3">
         <v>9900</v>
       </c>
       <c r="P22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-471400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-359100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-371700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-481800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-379800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-365200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-256500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-245200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-177700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-263700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-682000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-272000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-215300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-250300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-216300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-253400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-134900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-89700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-70500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-68000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E24" s="3">
         <v>75200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>51000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-572400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-434300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-422700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-526000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-426200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-393000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-279700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-281200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-205000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-279000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-689200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-275000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-217300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-250100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-215600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-262200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-132800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-91900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-72400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-433400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-422700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-523600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-420000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-393000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-281500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-283800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-207600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-281100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-690400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-276600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-218300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-250700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-215600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-262700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-132700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-92100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-73100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>89600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-51000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>432700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-62900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>53200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-433400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-422700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-523600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-420000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-393000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-281500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-283800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-207600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-281100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-690400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-276600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-218300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-250700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-215600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-262700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-132700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-92100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-73100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-433400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-422700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-523600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-420000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-393000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-281500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-283800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-207600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-281100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-690400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-276600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-218300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-250700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-215600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-262700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-132700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-92100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-73100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,112 +2660,116 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11126200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4645400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5752600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6166900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3509000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3432800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2599700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3119000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2297200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2308100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2362500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1002800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1209200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1477100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1172400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1347400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>581500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>651100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>456800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>170100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E42" s="3">
         <v>962100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>309700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>126100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>42300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>102300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -2687,480 +2777,504 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>18000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1433700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1159100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>795400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>668400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>295900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>254600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>163600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>191800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>140500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>152700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>151500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>103000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>61000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>73100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>64100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>59200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>43200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>37800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E44" s="3">
         <v>99500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>92700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>26900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3900</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2609100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2530900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2075600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1913400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1654200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1487700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1222600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>970100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>849300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>757500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>652000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>566500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>513100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>424200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>383400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>281500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>218800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>163600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>122800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>98100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16003700</v>
+      </c>
+      <c r="E46" s="3">
         <v>9397100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9025900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8939000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5563100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5251000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4050600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4410100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3317800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3249700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3192500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1710700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1808500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1979300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1642300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1720700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>866800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>868200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>628600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>309900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>370600</v>
+      </c>
+      <c r="E47" s="3">
         <v>331900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>353500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>307600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>219100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>195200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>143200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>113800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>99100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>118200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>71000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>58500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>45100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>45400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>45100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1353300</v>
+      </c>
+      <c r="E48" s="3">
         <v>830200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>628600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>621000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>573400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>523500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>486900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>501600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>463100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>425900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>406300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>192400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>147400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>121900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>93900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>74300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>32400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>525400</v>
+      </c>
+      <c r="E49" s="3">
         <v>518500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>509300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>256100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>244000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>260500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>263300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>56600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>68300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>73000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E52" s="3">
         <v>445400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>405300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>332000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>360900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>374100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>288900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>152700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>156000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>199200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>176100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>134700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>122600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>111100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>96700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>106400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>92500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>78900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>69700</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18548700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11523000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10922600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10455700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6960600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6604300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5232800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5224200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4081900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4019100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3927000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2192700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2252400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2355400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1970500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1988300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1121200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1064200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>812400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>485800</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>232700</v>
+      </c>
+      <c r="E57" s="3">
         <v>179600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>152900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>121600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>118400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>96700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,8 +3744,8 @@
       <c r="E58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3620,34 +3754,34 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2000</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S58" s="3">
         <v>2000</v>
@@ -3659,273 +3793,288 @@
         <v>2000</v>
       </c>
       <c r="V58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W58" s="3">
         <v>1900</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6188300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5704000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4924700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4514400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3654100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2890200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2375300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2262300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1979600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1663600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1371000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1148500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>921400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>744000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>738400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>627000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>438500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>323700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>276700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>255900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6421000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5883600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5077600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4636100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3772500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2986900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2428600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2362400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2051700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1721800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1410100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1186500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>946500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>777900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>752300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>637700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>449800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>333800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>288100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>263800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3503500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1282500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1757600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1840400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1920900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2109200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1374800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1356700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>446600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>439600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>582700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1062800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1116400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1145800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>745700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>727000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>674400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>624800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>355000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>813800</v>
+      </c>
+      <c r="E62" s="3">
         <v>758000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>647000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>559000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>494400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>615700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>462400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>332500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>324100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>418800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>182800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>161300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>177900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>148500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>208100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>179600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>157100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>142600</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10761500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7962900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7518900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7072800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6219300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5750500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4312200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4061700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2829400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2585700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2397500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2435800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2227300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2126800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1681400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1519300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1340700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1138200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>406400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>205100</v>
@@ -4402,10 +4570,13 @@
         <v>205100</v>
       </c>
       <c r="W70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6577700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-843800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-670100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-578000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-505000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7787300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3560200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3403700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3382900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>741200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>853800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>920600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1162400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1252500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1433400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1529500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-243100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>228600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>289100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>469000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-424600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-279000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-192800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-125700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-433400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-422700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-523600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-420000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-393000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-281500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-283800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-207600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-281100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-690400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-276600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-218300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-250700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-215600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-262700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-132700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-92100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-73100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5039,15 +5238,15 @@
       <c r="H83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="3">
         <v>38200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>11</v>
       </c>
@@ -5060,32 +5259,35 @@
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>11</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U83" s="3">
         <v>9000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E89" s="3">
         <v>132400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>318300</v>
       </c>
-      <c r="F89" s="3">
-        <v>458200</v>
-      </c>
       <c r="G89" s="3">
-        <v>23200</v>
+        <v>185400</v>
       </c>
       <c r="H89" s="3">
+        <v>296000</v>
+      </c>
+      <c r="I89" s="3">
         <v>298100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-223700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>380800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-265300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-324400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>112300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-188800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-94400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-38200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-89800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-65400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-65800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-42100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5519,15 +5740,15 @@
       <c r="H91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="3">
         <v>-50100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5540,32 +5761,35 @@
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>11</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-341900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-504300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-667400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>91300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-163700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-147100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-143700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-157100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>12900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6835200</v>
+      </c>
+      <c r="E100" s="3">
         <v>138800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>41600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2198600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>747700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>811600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1045000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>989800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-983100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1527900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-149800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>151700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>545300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>927400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>69500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>270000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>357000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E101" s="3">
         <v>14500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-46300</v>
       </c>
-      <c r="F101" s="3">
-        <v>78900</v>
-      </c>
       <c r="G101" s="3">
-        <v>-6800</v>
+        <v>59000</v>
       </c>
       <c r="H101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I101" s="3">
         <v>60500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-51800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>23200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6523100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-859700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-190800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2068300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>855400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1006400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-447300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>896700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1225800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1420700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-648000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>273600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>299300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-110600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>842800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-69600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>194300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>286700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-31900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3222100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2688900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2280500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1763600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1566600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1212200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>882000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>714900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>777200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>610100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>436200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>351900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>283200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>204900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>183800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>155000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>124600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>94100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>101500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>93900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>88500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1911400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1680200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1349700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1118200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1032800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>804600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>681200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>508100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>512400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>407000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>338700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>312400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>291200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>199300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>175200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>146500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>101100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>83300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>75700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>66800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>63200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1310700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1008700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>930800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>645400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>533800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>407600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>206800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>264800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>203100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-8000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>25800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>25300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>286600</v>
+      </c>
+      <c r="E12" s="3">
         <v>231400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>172600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>141100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>109500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>104300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>75300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>63900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,15 +1240,15 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1251,20 +1273,23 @@
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="3">
         <v>2100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3664200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3147400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2614600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2112100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1923900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1517600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1254800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>982600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1007300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>797600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>670700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>591100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>608200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>451100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>403300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>353100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>315700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>254800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>184000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>162000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-442100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-458500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-334100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-348500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-357300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-305400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-372800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-267700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-230100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-187500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-234500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-239200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-325000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-246200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-219500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-198100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-191100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-160700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-82500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-68100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E20" s="3">
         <v>24200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-89600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-28900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>51000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-432700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>62900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-53200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-453700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-420100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-331200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-287800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3">
         <v>-318400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-193600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-193500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-108900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-250100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-646400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-287600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-171100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-244000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-193200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="3">
         <v>-73900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-59400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E22" s="3">
         <v>37000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9900</v>
       </c>
       <c r="P22" s="3">
         <v>9900</v>
       </c>
       <c r="Q22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-513100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-471400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-359100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-371700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-481800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-379800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-365200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-256500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-245200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-177700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-263700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-682000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-272000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-215300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-250300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-216300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-253400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-134900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-89700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-70500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-68000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E24" s="3">
         <v>101000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>75200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>51000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>44200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-618700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-572400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-434300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-422700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-526000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-426200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-393000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-279700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-281200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-205000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-279000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-689200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-275000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-217300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-250100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-215600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-262200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-132800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-91900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-72400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-617600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-573000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-433400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-422700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-523600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-420000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-393000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-281500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-283800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-207600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-281100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-690400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-276600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-218300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-250700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-215600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-262700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-132700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-92100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-73100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>89600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>28900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-51000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>432700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-62900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>53200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-617600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-573000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-433400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-422700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-523600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-420000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-393000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-281500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-283800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-207600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-281100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-690400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-276600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-218300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-250700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-215600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-262700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-132700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-92100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-73100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-617600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-573000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-433400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-422700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-523600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-420000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-393000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-281500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-283800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-207600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-281100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-690400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-276600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-218300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-250700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-215600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-262700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-132700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-92100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-73100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,118 +2746,122 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9247800</v>
+      </c>
+      <c r="E41" s="3">
         <v>11126200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4645400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5752600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6166900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3509000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3432800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2599700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3119000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2297200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2308100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2362500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1002800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1209200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1477100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1172400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1347400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>581500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>651100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>456800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>170100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>911300</v>
+      </c>
+      <c r="E42" s="3">
         <v>706000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>962100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>309700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>126100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2780,501 +2869,525 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>18000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1905400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1433700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1159100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>795400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>668400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>295900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>254600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>163600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>191800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>140500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>152700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>151500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>103000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>73100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>64100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>59200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>43200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>37800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E44" s="3">
         <v>128700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>99500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>25900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>19600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3900</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2953500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2609100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2530900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2075600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1913400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1654200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1487700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1222600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>970100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>849300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>757500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>652000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>566500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>513100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>424200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>383400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>281500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>218800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>163600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>122800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>98100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15135400</v>
+      </c>
+      <c r="E46" s="3">
         <v>16003700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9397100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9025900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8939000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5563100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5251000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4050600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4410100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3317800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3249700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3192500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1710700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1808500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1979300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1642300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1720700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>866800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>868200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>628600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>309900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1081800</v>
+      </c>
+      <c r="E47" s="3">
         <v>370600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>331900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>353500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>307600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>219100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>195200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>143200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>118200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>58500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>45100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>45400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>45100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1679600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1353300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>830200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>628600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>621000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>573400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>523500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>486900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>501600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>463100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>425900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>406300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>192400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>147400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>121900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>93900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>74300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>592100</v>
+      </c>
+      <c r="E49" s="3">
         <v>525400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>518500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>509300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>256100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>244000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>260500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>263300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>43800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>56600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>64600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>68300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>73000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E52" s="3">
         <v>295700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>445400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>405300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>332000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>360900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>374100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>288900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>152700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>156000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>199200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>176100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>134700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>122600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>111100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>96700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>106400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>92500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>78900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>69700</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18756000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18548700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11523000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10922600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10455700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6960600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6604300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5232800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5224200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4081900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4019100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3927000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2192700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2252400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2355400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1970500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1988300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1121200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1064200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>812400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>485800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,81 +3794,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>213600</v>
+      </c>
+      <c r="E57" s="3">
         <v>232700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>179600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>152900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>121600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6000</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
+      <c r="D58" s="3">
+        <v>100000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>11</v>
@@ -3747,8 +3880,8 @@
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3757,34 +3890,34 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2000</v>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T58" s="3">
         <v>2000</v>
@@ -3796,285 +3929,300 @@
         <v>2000</v>
       </c>
       <c r="W58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X58" s="3">
         <v>1900</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6862900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6188300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5704000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4924700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4514400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3654100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2890200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2375300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2262300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1979600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1663600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1371000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1148500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>921400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>744000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>738400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>627000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>438500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>323700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>276700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>255900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7176400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6421000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5883600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5077600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4636100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3772500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2986900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2428600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2362400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2051700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1721800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1410100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1186500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>946500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>777900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>752300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>637700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>449800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>333800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>288100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>263800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3475700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3503500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1282500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1757600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1840400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1920900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2109200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1374800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1356700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>446600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>439600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>582700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1062800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1116400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1145800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>745700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>727000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>674400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>624800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>355000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>679500</v>
+      </c>
+      <c r="E62" s="3">
         <v>813800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>758000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>647000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>559000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>494400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>615700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>462400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>332500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>324100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>418800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>182800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>161300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>177900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>148500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>208100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>179600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>157100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>142600</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11357300</v>
+      </c>
+      <c r="E66" s="3">
         <v>10761500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7962900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7518900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7072800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6219300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5750500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4312200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4061700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2829400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2585700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2397500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2435800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2227300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2126800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1681400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1519300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1340700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1138200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>406400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4561,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>205100</v>
@@ -4573,10 +4740,13 @@
         <v>205100</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7195400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6577700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-843800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-670100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-578000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-505000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7398700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7787300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3560200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3403700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3382900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>741200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>853800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>920600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1162400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1252500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1433400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1529500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-243100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>228600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>289100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>469000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-424600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-279000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-192800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-125700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-617600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-573000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-433400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-422700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-523600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-420000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-393000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-281500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-283800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-207600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-281100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-690400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-276600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-218300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-250700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-215600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-262700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-132700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-92100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-73100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5241,15 +5439,15 @@
       <c r="I83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="3">
         <v>38200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>11</v>
       </c>
@@ -5262,32 +5460,35 @@
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>11</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V83" s="3">
         <v>9000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-304800</v>
+      </c>
+      <c r="E89" s="3">
         <v>62700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>132400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>318300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>185400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>298100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-223700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>380800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-265300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-324400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>112300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-188800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-94400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-38200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-89800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-65400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-65800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-42100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5743,15 +5963,15 @@
       <c r="I91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5764,32 +5984,35 @@
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>11</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V91" s="3">
         <v>-8700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1775500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-341900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-504300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-667400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>91300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-163700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-147100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-143700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>29400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-157100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>12900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6835200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>138800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>41600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2198600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>747700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>811600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1045000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>989800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-983100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1527900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-149800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>151700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>545300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>927400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>69500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>270000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>357000</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-33000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-46300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>59000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>60500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-51800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1687800</v>
+      </c>
+      <c r="E102" s="3">
         <v>6523100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-859700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-190800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2068300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>855400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1006400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-447300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>896700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1225800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1420700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-648000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>273600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>299300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-110600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>842800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-69600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>194300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>286700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-31900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2942600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2899600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3222100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2688900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2280500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1763600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1566600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1212200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>882000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>714900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>777200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>610100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>436200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>351900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>283200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>204900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>183800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>155000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>124600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>94100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>101500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>93900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>88500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1852400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1729500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1911400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1680200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1349700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1118200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1032800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>804600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>681200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>508100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>512400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>407000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>338700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>312400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>291200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>199300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>175200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>146500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>101100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>83300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>75700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>66800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>63200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1090200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1170100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1310700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1008700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>930800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>645400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>533800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>407600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>206800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>264800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>203100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>97500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>39500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>8600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>8500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>23500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>10800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>25800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>27100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>25300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>370900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>340400</v>
+      </c>
+      <c r="F12" s="3">
         <v>286600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>231400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>172600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>141100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>109500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>104300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>75300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>63900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>48800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>43600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>35100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>28500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>26600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>17300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>12900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>10700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>8700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>5800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,31 +1180,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>177300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,18 +1289,18 @@
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
         <v>11000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>10100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1276,20 +1322,26 @@
       <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3">
         <v>2100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>2000</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3779300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3397600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3664200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3147400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2614600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2112100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1923900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1517600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1254800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>982600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1007300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>797600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>670700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>591100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>608200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>451100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>403300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>353100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>315700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>254800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>184000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>162000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-836700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-498000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-442100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-458500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-334100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-348500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-357300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-305400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-372800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-267700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-230100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-187500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-234500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-239200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-325000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-246200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-219500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-198100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-191100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-160700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-82500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-68100</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>24200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-89600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-28900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>51000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>35900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>20600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-19100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-432700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>62900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>40800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-27800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-9600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-53200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>34300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-844500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-402800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-453700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-420100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-331200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-287800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="3">
         <v>-318400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-193600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-193500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-108900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-250100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-646400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-287600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-171100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-244000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-193200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="3">
         <v>-73900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-59400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F22" s="3">
         <v>52300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>37000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>22700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>26900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>34900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>45400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>43300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>10200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>9900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>9000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>8500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>6700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2300</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-869500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-504100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-513100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-471400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-359100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-371700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-481800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-379800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-365200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-256500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-245200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-177700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-263700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-682000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-215300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-250300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-216300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-253400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-134900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-89700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-70500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>81800</v>
+      </c>
+      <c r="F24" s="3">
         <v>105600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>101000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>75200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>51000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>44200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>46400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>23200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>27400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>15300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>8700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-934200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-585900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-618700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-572400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-434300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-422700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-526000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-426200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-393000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-279700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-281200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-205000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-279000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-689200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-275000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-217300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-250100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-215600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-262200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-132800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-91900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-72400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-933100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-579800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-617600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-573000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-433400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-422700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-523600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-420000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-393000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-281500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-283800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-207600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-281100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-690400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-276600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-218300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-250700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-215600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-262700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-132700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-92100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-73100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>18700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-24200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>89600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>28900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-51000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-35900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-20600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>19100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>432700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-40800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>27800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>9600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>53200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-34300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-933100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-579800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-617600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-573000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-433400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-422700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-523600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-420000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-393000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-281500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-283800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-207600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-281100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-690400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-276600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-218300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-250700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-215600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-262700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-132700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-92100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-73100</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-933100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-579800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-617600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-573000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-433400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-422700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-523600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-420000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-393000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-281500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-283800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-207600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-281100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-690400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-276600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-218300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-250700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-215600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-262700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-132700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-92100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-73100</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6493200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7683700</v>
+      </c>
+      <c r="F41" s="3">
         <v>9247800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11126200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4645400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5752600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6166900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3509000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3432800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2599700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3119000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2297200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2308100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2362500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1002800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1209200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1477100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1172400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1347400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>581500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>651100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>456800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>170100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1287500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1116900</v>
+      </c>
+      <c r="F42" s="3">
         <v>911300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>706000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>962100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>309700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>126100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>42300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>30500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>102300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>9400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>18000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2295000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2124600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1905400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1433700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1159100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>795400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>668400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>295900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>254600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>163600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>191800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>140500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>152700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>151500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>103000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>66500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>61000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>73100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>64100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>59200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>47900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>43200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>37800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>139700</v>
+      </c>
+      <c r="F44" s="3">
         <v>117500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>128700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>99500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>92700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>64200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>61700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>61200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>34200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>26900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>22500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>25900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>37700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>19600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>16900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>13400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>9800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>7300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>5700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>5900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>3900</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2769200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2765100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2953500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2609100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2530900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2075600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1913400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1654200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1487700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1222600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>970100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>849300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>757500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>652000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>566500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>513100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>424200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>383400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>281500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>218800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>163600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>122800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>98100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12972100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13829900</v>
+      </c>
+      <c r="F46" s="3">
         <v>15135400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16003700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9397100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9025900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8939000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5563100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5251000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4050600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4410100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3317800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3249700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3192500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1710700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1808500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1979300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1642300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1720700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>866800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>868200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>628600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>309900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1383900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="F47" s="3">
         <v>1081800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>370600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>331900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>353500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>307600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>219100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>195200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>143200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>113800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>99100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>100400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>107100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>111000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>118200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>71000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>58500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>28200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>27100</v>
-      </c>
-      <c r="V47" s="3">
-        <v>45100</v>
-      </c>
-      <c r="W47" s="3">
-        <v>45400</v>
       </c>
       <c r="X47" s="3">
         <v>45100</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>45400</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>45100</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2214700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2101500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1679600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1353300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>830200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>628600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>621000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>573400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>523500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>486900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>501600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>463100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>425900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>406300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>192400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>147400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>121900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>93900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>74300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>47900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>34100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>32400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>31100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>462300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>624000</v>
+      </c>
+      <c r="F49" s="3">
         <v>592100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>525400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>518500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>509300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>256100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>244000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>260500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>263300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>46000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>45900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>43800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>44900</v>
       </c>
       <c r="P49" s="3">
         <v>43800</v>
       </c>
       <c r="Q49" s="3">
+        <v>44900</v>
+      </c>
+      <c r="R49" s="3">
+        <v>43800</v>
+      </c>
+      <c r="S49" s="3">
         <v>56600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>60500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>64600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>68300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>73000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>24300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>27200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>30000</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>434700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>323400</v>
+      </c>
+      <c r="F52" s="3">
         <v>267000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>295700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>445400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>405300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>332000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>360900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>374100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>288900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>152700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>156000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>199200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>176100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>134700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>121800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>122600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>111100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>96700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>106400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>92500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>78900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>69700</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17467700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18334600</v>
+      </c>
+      <c r="F54" s="3">
         <v>18756000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18548700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11523000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10922600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10455700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6960600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6604300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5232800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5224200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4081900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4019100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3927000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2192700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2252400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2355400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1970500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1988300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1121200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1064200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>812400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>485800</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,135 +4055,143 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>287100</v>
+      </c>
+      <c r="F57" s="3">
         <v>213600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>232700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>179600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>152900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>121600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>118400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>96700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>51000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>69400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>48100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>38100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>37200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>25200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>33900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>13900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>8600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>9400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6000</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>24000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>25800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>11</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V58" s="3">
         <v>2000</v>
@@ -3932,297 +4200,327 @@
         <v>2000</v>
       </c>
       <c r="X58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1900</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6567000</v>
+      </c>
+      <c r="F59" s="3">
         <v>6862900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6188300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5704000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4924700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4514400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3654100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2890200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2375300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2262300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1979600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1663600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1371000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1148500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>921400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>744000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>738400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>627000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>438500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>323700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>276700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>255900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6739800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6854100</v>
+      </c>
+      <c r="F60" s="3">
         <v>7176400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6421000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5883600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5077600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4636100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3772500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2986900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2428600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2362400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2051700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1721800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1410100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1186500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>946500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>777900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>752300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>637700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>449800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>333800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>288100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>263800</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4177300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4175400</v>
+      </c>
+      <c r="F61" s="3">
         <v>3475700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3503500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1282500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1757600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1840400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1920900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2109200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1374800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1356700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>446600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>439600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>582700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1062800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1116400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1145800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>745700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>727000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>674400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>624800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>355000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1115800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1013800</v>
+      </c>
+      <c r="F62" s="3">
         <v>679500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>813800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>758000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>647000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>559000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>494400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>615700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>462400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>332500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>324100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>418800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>400200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>182800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>161300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>200200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>177900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>148500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>208100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>179600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>157100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>142600</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12094500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12073400</v>
+      </c>
+      <c r="F66" s="3">
         <v>11357300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10761500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7962900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7518900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7072800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6219300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5750500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4312200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4061700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2829400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2585700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2397500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2435800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2227300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2126800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1681400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1519300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1340700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1138200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>800200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>406400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4731,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
         <v>205100</v>
@@ -4743,10 +5079,16 @@
         <v>205100</v>
       </c>
       <c r="Y70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>205100</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8594600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7661400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7195400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6577700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-843800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-670100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-578000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-505000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5373200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6261200</v>
+      </c>
+      <c r="F76" s="3">
         <v>7398700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7787300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3560200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3403700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3382900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>741200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>853800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>920600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1162400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1252500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1433400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1529500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-243100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>25100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>228600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>289100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>469000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-424600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-279000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-192800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-125700</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-933100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-579800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-617600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-573000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-433400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-422700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-523600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-420000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-393000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-281500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-283800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-207600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-281100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-690400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-276600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-218300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-250700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-215600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-262700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-132700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-92100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-73100</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,44 +5812,46 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="3">
         <v>38200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>34600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
@@ -5463,32 +5861,38 @@
       <c r="Q83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X83" s="3">
         <v>9000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>8800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1174400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-723700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-304800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>62700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>132400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>318300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>185400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>296000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>298100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-223700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-27800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>380800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-265300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-17800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-324400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>112300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-188800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-94400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-38200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-89800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-65400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-65800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-42100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,44 +6380,46 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="3">
         <v>-50100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-42400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
@@ -5987,32 +6429,38 @@
       <c r="Q91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X91" s="3">
         <v>-8700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-7400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-519100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1130700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1775500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-341900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-504300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-667400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>91300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-163700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-147100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-143700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-157700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>29400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-91300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-157100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-40000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-21800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-51100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-50100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-10700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-6700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>12900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>142400</v>
+      </c>
+      <c r="F100" s="3">
         <v>386000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>6835200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>138800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>41600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2198600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>747700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>811600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-24800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1045000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>989800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-983100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1527900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-149800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>151700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>545300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>927400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>69500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>270000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>357000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F101" s="3">
         <v>6500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-33000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>14500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-46300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>60500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-51800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>23200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>15300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-17300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>6200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>4700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>669500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1720000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1687800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>6523100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-859700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-190800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2068300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>855400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1006400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-447300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>896700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1225800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1420700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-648000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>273600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>299300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-110600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>842800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-69600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>194300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>286700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-31900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -6282,7 +6282,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1174400</v>
+        <v>-485500</v>
       </c>
       <c r="E89" s="3">
         <v>-723700</v>
@@ -6619,7 +6619,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-519100</v>
+        <v>-947500</v>
       </c>
       <c r="E94" s="3">
         <v>-1130700</v>
@@ -7033,7 +7033,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>38000</v>
+        <v>297600</v>
       </c>
       <c r="E100" s="3">
         <v>142400</v>
@@ -7110,7 +7110,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23700</v>
+        <v>-119700</v>
       </c>
       <c r="E101" s="3">
         <v>-8100</v>
@@ -7187,7 +7187,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>669500</v>
+        <v>-1255100</v>
       </c>
       <c r="E102" s="3">
         <v>-1720000</v>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3156000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2942600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2899600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3222100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2688900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2280500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1763600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1566600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1212200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>882000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>714900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>777200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>610100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>436200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>351900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>283200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>204900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>183800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>155000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>124600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>94100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>101500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>93900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>88500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1928200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1852400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1729500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1911400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1680200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1349700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1118200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1032800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>804600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>681200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>508100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>512400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>407000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>338700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>312400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>291200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>199300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>175200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>146500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>101100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>83300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>75700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>66800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>63200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1227800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1090200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1170100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1310700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1008700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>930800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>645400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>533800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>407600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>206800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>264800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>203100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-8000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>25800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>27100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>25300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E12" s="3">
         <v>370900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>340400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>286600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>231400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>172600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>141100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>109500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>104300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>63900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>43600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>5800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,17 +1203,20 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>177300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1295,15 +1318,15 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
         <v>11000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1328,20 +1351,23 @@
       <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="3">
         <v>2100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2000</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3651600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3779300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3397600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3664200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3147400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2614600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2112100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1923900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1517600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1254800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>982600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1007300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>797600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>670700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>591100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>608200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>451100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>403300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>353100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>315700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>254800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>184000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>162000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-495600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-836700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-498000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-442100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-458500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-334100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-348500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-357300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-305400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-372800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-267700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-230100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-187500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-234500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-239200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-325000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-246200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-219500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-198100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-191100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-160700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-82500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-68100</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-89600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>51000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-432700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>62900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-53200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-476300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-844500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-402800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-453700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-420100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-331200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-287800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3">
         <v>-318400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-193600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-193500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-108900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-250100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-646400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-287600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-171100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-244000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-193200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-73900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-59400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E22" s="3">
         <v>11400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>9900</v>
       </c>
       <c r="S22" s="3">
         <v>9900</v>
       </c>
       <c r="T22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2300</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-504800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-869500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-504100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-513100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-471400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-359100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-371700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-481800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-379800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-365200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-256500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-245200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-177700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-263700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-682000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-272000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-215300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-250300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-216300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-253400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-134900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-89700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-70500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E24" s="3">
         <v>64800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>81800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>105600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>101000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>75200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>51000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>44200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-570100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-934200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-585900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-618700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-572400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-434300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-422700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-526000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-426200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-393000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-279700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-281200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-205000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-279000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-689200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-275000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-217300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-250100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-215600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-262200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-132800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-91900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-72400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-565300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-933100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-579800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-617600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-573000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-433400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-422700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-523600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-420000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-393000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-281500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-283800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-207600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-281100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-690400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-276600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-218300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-250700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-215600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-262700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-132700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-73100</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>21400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>89600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-51000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>432700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-62900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>53200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-565300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-933100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-579800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-617600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-573000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-433400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-422700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-523600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-420000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-393000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-281500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-283800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-207600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-281100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-690400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-276600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-218300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-250700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-215600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-262700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-132700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-73100</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-565300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-933100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-579800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-617600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-573000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-433400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-422700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-523600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-420000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-393000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-281500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-283800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-207600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-281100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-690400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-276600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-218300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-250700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-215600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-262700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-132700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-73100</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,136 +3007,140 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6253400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6493200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7683700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9247800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11126200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4645400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5752600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6166900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3509000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3432800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2599700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3119000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2297200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2308100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2362500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1002800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1209200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1477100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1172400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1347400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>581500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>651100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>456800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>170100</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1042300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1287500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1116900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>911300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>706000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>962100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>309700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>126100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>30500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
@@ -3058,564 +3148,588 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>18000</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2386500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2295000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2124600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1905400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1433700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1159100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>795400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>668400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>295900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>254600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>163600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>191800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>140500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>152700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>151500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>103000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>61000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>73100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>64100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>59200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>47900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>43200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>37800</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E44" s="3">
         <v>127200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>139700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>117500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>128700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>99500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>92700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>64200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>19600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3900</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2773300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2769200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2765100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2953500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2609100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2530900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2075600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1913400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1654200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1487700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1222600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>970100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>849300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>757500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>652000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>566500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>513100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>424200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>383400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>281500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>218800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>163600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>122800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>98100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12577900</v>
+      </c>
+      <c r="E46" s="3">
         <v>12972100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13829900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15135400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16003700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9397100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9025900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8939000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5563100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5251000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4050600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4410100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3317800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3249700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3192500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1710700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1808500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1979300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1642300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1720700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>866800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>868200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>628600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>309900</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1383900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1455900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1081800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>370600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>331900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>353500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>307600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>219100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>195200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>143200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>113800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>118200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>58500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>45100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>45400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>45100</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2457200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2214700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2101500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1679600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1353300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>830200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>628600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>621000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>573400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>523500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>486900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>501600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>463100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>425900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>406300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>192400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>147400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>121900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>93900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>74300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>47900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>34100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31100</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>482100</v>
+      </c>
+      <c r="E49" s="3">
         <v>462300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>624000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>592100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>525400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>518500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>509300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>256100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>244000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>260500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>263300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>56600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>64600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>68300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>73000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30000</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E52" s="3">
         <v>434700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>323400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>267000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>295700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>445400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>405300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>332000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>360900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>374100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>288900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>152700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>156000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>199200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>176100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>134700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>121800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>122600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>111100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>96700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>106400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>92500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>78900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>69700</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17282300</v>
+      </c>
+      <c r="E54" s="3">
         <v>17467700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18334600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18756000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18548700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11523000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10922600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10455700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6960600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6604300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5232800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5224200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4081900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4019100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3927000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2192700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2252400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2355400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1970500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1988300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1121200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1064200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>812400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>485800</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,108 +4187,112 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>289800</v>
+      </c>
+      <c r="E57" s="3">
         <v>239000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>287100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>213600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>232700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>179600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>152900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>121600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>118400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6000</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>80200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4167,34 +4301,34 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2000</v>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W58" s="3">
         <v>2000</v>
@@ -4206,321 +4340,336 @@
         <v>2000</v>
       </c>
       <c r="Z58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1900</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6681300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6500800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6567000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6862900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6188300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5704000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4924700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4514400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3654100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2890200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2375300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2262300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1979600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1663600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1371000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1148500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>921400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>744000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>738400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>627000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>438500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>323700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>276700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>255900</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7051400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6739800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6854100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7176400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6421000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5883600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5077600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4636100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3772500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2986900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2428600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2362400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2051700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1721800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1410100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1186500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>946500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>777900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>752300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>637700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>449800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>333800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>288100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>263800</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4148000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4177300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4175400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3475700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3503500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1282500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1757600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1840400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1920900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2109200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1374800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1356700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>446600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>439600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>582700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1062800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1116400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1145800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>745700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>727000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>674400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>624800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>355000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1126800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1115800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1013800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>679500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>813800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>758000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>647000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>559000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>494400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>615700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>462400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>332500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>324100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>418800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>400200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>182800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>161300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>177900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>148500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>208100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>179600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>157100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>142600</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12385100</v>
+      </c>
+      <c r="E66" s="3">
         <v>12094500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12073400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11357300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10761500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7962900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7518900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7072800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6219300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5750500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4312200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4061700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2829400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2585700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2397500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2435800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2227300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2126800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1681400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1519300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1340700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1138200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>800200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>406400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5073,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>205100</v>
@@ -5085,10 +5253,13 @@
         <v>205100</v>
       </c>
       <c r="AA70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9159800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8594600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7661400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7195400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6577700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-843800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-670100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-578000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-505000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4897200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5373200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6261200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7398700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7787300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3560200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3403700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3382900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>741200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>853800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>920600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1162400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1252500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1433400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1529500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-243100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>228600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>289100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>469000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-424600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-279000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-192800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-125700</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-565300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-933100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-579800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-617600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-573000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-433400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-422700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-523600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-420000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-393000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-281500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-283800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-207600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-281100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-690400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-276600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-218300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-250700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-215600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-262700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-132700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-73100</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5840,21 +6039,21 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>11</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" s="3">
         <v>38200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
@@ -5867,32 +6066,35 @@
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>11</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y83" s="3">
         <v>9000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-485500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-723700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-304800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>132400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>318300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>185400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>296000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>298100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-223700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>380800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-265300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-324400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>112300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-188800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-94400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-38200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-89800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-65400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-65800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-42100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6408,21 +6629,21 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="3">
         <v>-50100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
@@ -6435,32 +6656,35 @@
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>11</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-402100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-947500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1130700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1775500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-341900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-504300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-667400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>91300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-163700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-147100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-143700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-157700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>29400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-157100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-50100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>12900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E100" s="3">
         <v>297600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>142400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>386000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6835200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>138800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>41600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2198600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>747700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>811600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1045000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>989800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-983100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1527900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-149800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>151700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>545300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>927400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>69500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>270000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>357000</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-119700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-33000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>14500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-46300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>59000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>60500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-51800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-17300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1255100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1687800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6523100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-859700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-190800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2068300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>855400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1006400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-447300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>896700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1225800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1420700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-648000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>273600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>299300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-110600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>842800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-69600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>194300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>286700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-31900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3041100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3451600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3156000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2942600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2899600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3222100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2688900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2280500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1763600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1566600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1212200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>882000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>714900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>777200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>610100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>436200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>351900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>283200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>204900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>183800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>155000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>124600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>94100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>101500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>93900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>88500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1624400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1754300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1928200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1852400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1729500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1911400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1680200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1349700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1118200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1032800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>804600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>681200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>508100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>512400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>407000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>338700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>312400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>291200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>199300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>175200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>146500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>101100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>83300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>75700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>66800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>63200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1416700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1697300</v>
+      </c>
+      <c r="F10" s="3">
         <v>1227800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1090200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1170100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1310700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1008700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>930800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>645400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>533800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>407600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>206800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>264800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>203100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>97500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>39500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-8000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>8600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>8500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>23500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>10800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>25800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>27100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>25300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1071,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>244200</v>
+      </c>
+      <c r="F12" s="3">
         <v>421000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>370900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>340400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>286600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>231400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>172600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>141100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>109500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>104300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>75300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>63900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>48800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>43600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>35100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>28500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>26600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>17300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>12900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>10700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>8700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>7700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>6600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>6100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>5800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,23 +1239,29 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>117900</v>
       </c>
       <c r="E14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>177300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1235,11 +1274,11 @@
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1321,18 +1366,18 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
         <v>11000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>10100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1354,20 +1399,26 @@
       <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="3">
         <v>2100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>2000</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2915900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2909000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3651600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3779300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3397600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3664200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3147400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2614600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2112100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1923900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1517600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1254800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>982600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1007300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>797600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>670700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>591100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>608200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>451100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>403300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>353100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>315700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>254800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>184000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>162000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>542600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-495600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-836700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-498000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-442100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-458500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-334100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-348500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-357300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-305400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-372800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-267700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-230100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-187500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-234500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-239200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-325000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-246200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-219500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-198100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-191100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-160700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-82500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-68100</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-21400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-18700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>24200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-89600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-28900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>51000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>35900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>20600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-19100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-432700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>62900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>40800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-27800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-9600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-53200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>34300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>384000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-476300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-844500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-402800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-453700</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-258200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-420100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-331200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-287800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="3">
         <v>-318400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-193600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-193500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-108900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-250100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-646400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-287600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-171100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-244000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-193200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-73900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-59400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11600</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="F22" s="3">
         <v>11600</v>
       </c>
       <c r="G22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I22" s="3">
         <v>52300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>37000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>22700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>26900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>34900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>45400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>43300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>24600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>10200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>8600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>9000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>8500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>6700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>2300</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>377800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-504800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-869500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-504100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-513100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-471400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-359100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-371700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-481800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-379800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-365200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-256500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-245200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-177700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-263700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-682000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-272000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-215300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-250300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-216300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-253400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-134900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-89700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-70500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-68000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="F24" s="3">
         <v>65300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>64800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>81800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>105600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>101000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>75200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>51000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>44200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>46400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>27800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>23200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>15300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>8700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>421300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-570100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-934200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-585900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-618700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-572400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-434300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-422700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-526000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-426200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-393000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-279700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-281200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-279000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-689200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-275000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-217300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-250100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-215600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-262200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-132800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-91900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-72400</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>426800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-565300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-933100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-579800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-617600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-573000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-433400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-422700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-523600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-420000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-393000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-281500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-283800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-207600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-281100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-690400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-276600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-218300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-250700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-215600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-262700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-132700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-73100</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>153900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>21400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>18700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-24200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>89600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>28900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-51000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-35900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>19100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>432700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-62900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-40800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>27800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>9600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>53200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-34300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>426800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-565300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-933100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-579800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-617600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-573000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-433400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-422700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-523600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-420000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-393000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-281500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-283800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-207600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-281100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-690400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-276600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-218300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-250700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-215600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-262700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-132700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-73100</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>426800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-565300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-933100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-579800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-617600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-573000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-433400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-422700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-523600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-420000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-393000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-281500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-283800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-207600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-281100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-690400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-276600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-218300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-250700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-215600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-262700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-132700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-73100</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3179,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6082700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6029900</v>
+      </c>
+      <c r="F41" s="3">
         <v>6253400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6493200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7683700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9247800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11126200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4645400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5752600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6166900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3509000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3432800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2599700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3119000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2297200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2308100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2362500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1002800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1209200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1477100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1172400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1347400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>581500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>651100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>456800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>170100</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>506400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>864300</v>
+      </c>
+      <c r="F42" s="3">
         <v>1042300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1287500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1116900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>911300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>706000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>962100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>309700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>126100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>42300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>30500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>102300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>9400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>8900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>700</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>18000</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2246600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2336000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2386500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2295000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2124600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1905400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1433700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1159100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>795400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>668400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>295900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>254600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>163600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>191800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>140500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>152700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>151500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>103000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>66500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>61000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>73100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>64100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>59200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>47900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>43200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>37800</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>109700</v>
+      </c>
+      <c r="F44" s="3">
         <v>122400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>127200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>139700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>117500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>128700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>99500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>92700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>64200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>61700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>61200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>34200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>26900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>21400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>22500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>25900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>37700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>19600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>16900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>13400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>9800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>7300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>5700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>5900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>3900</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3497300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3348200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2773300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2769200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2765100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2953500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2609100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2530900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2075600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1913400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1654200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1487700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1222600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>970100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>849300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>757500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>652000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>566500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>513100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>424200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>383400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>281500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>218800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>163600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>122800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>98100</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12440300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12688000</v>
+      </c>
+      <c r="F46" s="3">
         <v>12577900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>12972100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13829900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15135400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>16003700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9397100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9025900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8939000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5563100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5251000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4050600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4410100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3317800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3249700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3192500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1710700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1808500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1979300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1642300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1720700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>866800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>868200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>628600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>309900</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1805500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1275300</v>
+      </c>
+      <c r="F47" s="3">
         <v>1372000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1383900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1455900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1081800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>370600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>331900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>353500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>307600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>219100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>195200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>143200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>113800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>99100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>100400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>107100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>111000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>118200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>71000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>58500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>28200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>27100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>45100</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>45400</v>
       </c>
       <c r="AA47" s="3">
         <v>45100</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>45400</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>45100</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2372400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2345700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2457200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2214700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2101500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1679600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1353300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>830200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>628600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>621000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>573400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>523500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>486900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>501600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>463100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>425900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>406300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>192400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>147400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>121900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>93900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>74300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>47900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>34100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>32400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>31100</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>295200</v>
+      </c>
+      <c r="F49" s="3">
         <v>482100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>462300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>624000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>592100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>525400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>518500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>509300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>256100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>244000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>260500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>263300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>46000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>45900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>43800</v>
-      </c>
-      <c r="R49" s="3">
-        <v>44900</v>
       </c>
       <c r="S49" s="3">
         <v>43800</v>
       </c>
       <c r="T49" s="3">
+        <v>44900</v>
+      </c>
+      <c r="U49" s="3">
+        <v>43800</v>
+      </c>
+      <c r="V49" s="3">
         <v>56600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>60500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>64600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>68300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>73000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>24300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>27200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>30000</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>443400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>398600</v>
+      </c>
+      <c r="F52" s="3">
         <v>393200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>434700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>323400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>267000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>295700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>445400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>405300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>332000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>360900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>374100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>288900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>152700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>156000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>199200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>176100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>134700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>121800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>122600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>111100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>96700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>106400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>92500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>78900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>69700</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17243900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17002800</v>
+      </c>
+      <c r="F54" s="3">
         <v>17282300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17467700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18334600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18756000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>18548700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11523000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10922600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10455700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6960600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6604300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5232800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5224200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4081900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4019100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3927000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2192700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2252400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2355400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1970500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1988300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1121200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1064200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>812400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>485800</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,153 +4447,161 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>258600</v>
+      </c>
+      <c r="F57" s="3">
         <v>289800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>239000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>287100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>213600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>232700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>179600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>152900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>121600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>118400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>96700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>51000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>69400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>48100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>32400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>38100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>37200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>25200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>33900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>13900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>8600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>9300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>8100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>9400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>6000</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1544400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="F58" s="3">
         <v>80200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>30700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>24000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>25800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>11</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y58" s="3">
         <v>2000</v>
@@ -4343,333 +4610,363 @@
         <v>2000</v>
       </c>
       <c r="AA58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1900</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4903500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5241000</v>
+      </c>
+      <c r="F59" s="3">
         <v>6681300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6500800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6567000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6862900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6188300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5704000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4924700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4514400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3654100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2890200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2375300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2262300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1979600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1663600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1371000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1148500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>921400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>744000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>738400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>627000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>438500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>323700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>276700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>255900</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6660200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6935700</v>
+      </c>
+      <c r="F60" s="3">
         <v>7051400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6739800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6854100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7176400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6421000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5883600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5077600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4636100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3772500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2986900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2428600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2362400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2051700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1721800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1410100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1186500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>946500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>777900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>752300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>637700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>449800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>333800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>288100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>263800</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3340200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3338800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4148000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4177300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4175400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3475700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3503500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1282500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1757600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1840400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1920900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2109200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1374800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1356700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>446600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>439600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>582700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1062800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1116400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1145800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>745700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>727000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>674400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>624800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>355000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1051800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>917500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1126800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1115800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1013800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>679500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>813800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>758000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>647000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>559000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>494400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>615700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>462400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>332500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>324100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>418800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>400200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>182800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>161300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>200200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>177900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>148500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>208100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>179600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>157100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>142600</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11150600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11287100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12385100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12094500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12073400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11357300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10761500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7962900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7518900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7072800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6219300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5750500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4312200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4061700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2829400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2585700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2397500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2435800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2227300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2126800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1681400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1519300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1340700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1138200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>800200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>406400</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5244,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="3">
         <v>205100</v>
@@ -5256,10 +5591,16 @@
         <v>205100</v>
       </c>
       <c r="AB70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>205100</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8645000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8733100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9159800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8594600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7661400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7195400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6577700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-843800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-670100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-578000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-505000</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6093300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5715700</v>
+      </c>
+      <c r="F76" s="3">
         <v>4897200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5373200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6261200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7398700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7787300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3560200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3403700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3382900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>741200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>853800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>920600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1162400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1252500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1433400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1529500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-243100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>25100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>228600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>289100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>469000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-424600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-279000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-192800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-125700</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>426800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-565300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-933100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-579800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-617600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-573000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-433400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-422700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-523600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-420000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-393000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-281500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-283800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-207600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-281100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-690400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-276600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-218300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-250700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-215600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-262700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-132700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-92100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-73100</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6042,24 +6439,24 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P83" s="3">
         <v>38200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>34600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>11</v>
       </c>
@@ -6069,32 +6466,38 @@
       <c r="T83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA83" s="3">
         <v>9000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>8800</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB83" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>605500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>319700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-166300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-485500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-723700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-304800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>62700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>132400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>318300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>185400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>296000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>298100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-223700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-27800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>380800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-265300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-17800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-324400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>112300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-188800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-94400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-38200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-89800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-65400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-65800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-42100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,22 +7042,24 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-807200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-306300</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-50800</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-43800</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6632,24 +7073,24 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P91" s="3">
         <v>-50100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-42400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>11</v>
       </c>
@@ -6659,32 +7100,38 @@
       <c r="T91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-7400</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-673800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-402100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-947500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1130700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1775500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-341900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-504300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-667400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>91300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-163700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-147100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-143700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-157700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>29400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-91300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-157100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-40000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-21800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-51100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-50100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>12900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-513700</v>
+      </c>
+      <c r="F100" s="3">
         <v>474000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>297600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>142400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>386000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6835200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>138800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>41600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2198600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>747700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>811600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-24800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1045000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>989800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-983100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1527900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-149800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>151700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>545300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>927400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>69500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>270000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>357000</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>109100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-124900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-119700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>6500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-33000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>14500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-46300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>59000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>60500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-51800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>23200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>12900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-12900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-16800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>15300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-17300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>6200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>4700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>2200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-219200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1255100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1687800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6523100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-859700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-190800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2068300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>855400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1006400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-447300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>896700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1225800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1420700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-648000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>273600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>299300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-110600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>842800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-69600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>194300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>286700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-31900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3095700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3041100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3451600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3156000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2942600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2899600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3222100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2688900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2280500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1763600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1566600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1212200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>882000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>714900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>777200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>610100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>436200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>351900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>283200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>204900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>183800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>155000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>124600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>94100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>101500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>93900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>88500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1644800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1624400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1754300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1928200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1852400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1729500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1911400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1680200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1349700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1118200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1032800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>804600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>681200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>508100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>512400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>407000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>338700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>312400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>291200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>199300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>175200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>146500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>101100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>83300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>75700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>66800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>63200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1450900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1416700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1697300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1227800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1090200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1170100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1310700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1008700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>930800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>645400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>533800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>407600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>206800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>264800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>203100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>97500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-8000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>23500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>25800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>27100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>25300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>283300</v>
+      </c>
+      <c r="E12" s="3">
         <v>320500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>244200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>421000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>370900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>340400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>286600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>231400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>172600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>141100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>109500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>104300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>63900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>48800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>43600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>26600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>5800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,26 +1262,29 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>117900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-22000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>177300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1280,8 +1300,8 @@
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1331,31 +1351,34 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -1372,15 +1395,15 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3">
         <v>11000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1405,20 +1428,23 @@
       <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="3">
         <v>2100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>2000</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2811800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2915900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2909000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3651600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3779300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3397600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3664200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3147400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2614600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2112100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1923900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1517600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1254800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>982600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1007300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>797600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>670700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>591100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>608200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>451100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>403300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>353100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>315700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>254800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>184000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>162000</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E18" s="3">
         <v>125200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>542600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-495600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-836700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-498000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-442100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-458500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-334100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-348500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-357300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-305400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-372800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-267700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-230100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-187500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-234500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-239200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-325000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-246200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-219500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-198100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-191100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-160700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-82500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-68100</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E20" s="3">
         <v>32900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-153900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-89600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-28900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>51000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>35900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-19100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-432700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>62900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>40800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-27800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-53200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>393600</v>
+      </c>
+      <c r="E21" s="3">
         <v>278300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>384000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-476300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-844500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-402800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-258200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-420100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-331200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-287800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="3">
         <v>-318400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-193600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-193500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-108900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-250100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-646400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-287600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-171100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-244000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-193200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-73900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-59400</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,257 +1871,266 @@
         <v>10400</v>
       </c>
       <c r="E22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>9900</v>
       </c>
       <c r="V22" s="3">
         <v>9900</v>
       </c>
       <c r="W22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2300</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>391400</v>
+      </c>
+      <c r="E23" s="3">
         <v>147700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>377800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-504800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-869500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-504100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-513100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-471400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-359100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-371700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-481800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-379800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-365200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-256500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-245200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-177700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-263700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-682000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-272000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-215300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-250300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-216300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-253400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-134900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-89700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-70500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-68000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E24" s="3">
         <v>61900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-43500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>64800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>81800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>105600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>101000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E26" s="3">
         <v>85800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>421300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-570100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-934200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-585900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-618700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-572400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-434300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-422700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-526000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-426200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-393000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-279700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-281200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-205000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-279000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-689200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-275000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-217300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-250100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-215600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-262200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-132800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-91900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-72400</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E27" s="3">
         <v>88100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>426800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-565300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-933100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-579800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-617600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-573000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-433400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-422700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-523600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-420000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-393000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-283800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-207600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-281100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-690400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-276600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-218300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-250700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-215600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-262700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-132700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-92100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-73100</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-32900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>153900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>89600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>28900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-51000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>19100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>432700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-62900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-40800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>27800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>53200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E33" s="3">
         <v>88100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>426800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-565300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-933100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-579800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-617600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-573000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-433400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-422700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-523600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-420000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-393000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-283800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-207600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-281100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-690400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-276600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-218300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-250700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-215600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-262700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-132700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-92100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-73100</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E35" s="3">
         <v>88100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>426800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-565300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-933100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-579800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-617600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-573000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-433400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-422700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-523600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-420000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-393000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-283800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-207600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-281100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-690400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-276600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-218300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-250700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-215600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-262700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-132700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-92100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-73100</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,154 +3267,158 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3524400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6082700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6029900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6253400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6493200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7683700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9247800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11126200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4645400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5752600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6166900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3509000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3432800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2599700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3119000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2297200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2308100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2362500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1002800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1209200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1477100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1172400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1347400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>581500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>651100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>456800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>170100</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2174900</v>
+      </c>
+      <c r="E42" s="3">
         <v>506400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>864300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1042300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1287500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1116900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>911300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>706000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>962100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>309700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>126100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>102300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>700</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
@@ -3336,627 +3426,651 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>18000</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2198800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2246600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2336000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2386500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2295000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2124600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1905400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1433700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1159100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>795400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>668400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>295900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>254600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>163600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>191800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>140500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>152700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>151500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>103000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>61000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>73100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>64100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>59200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>47900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>43200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>37800</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E44" s="3">
         <v>107300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>109700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>127200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>139700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>117500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>128700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>99500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>92700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>34200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>21400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>25900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>19600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>13400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3900</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3479200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3497300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3348200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2773300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2769200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2765100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2953500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2609100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2530900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2075600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1913400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1654200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1487700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1222600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>970100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>849300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>757500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>652000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>566500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>513100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>424200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>383400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>281500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>218800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>163600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>122800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>98100</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11475800</v>
+      </c>
+      <c r="E46" s="3">
         <v>12440300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12688000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12577900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12972100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13829900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15135400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16003700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9397100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9025900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8939000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5563100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5251000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4050600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4410100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3317800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3249700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3192500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1710700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1808500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1979300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1642300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1720700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>866800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>868200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>628600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>309900</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3202100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1805500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1275300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1372000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1383900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1455900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1081800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>370600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>331900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>353500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>307600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>219100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>195200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>143200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>113800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>99100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>111000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>118200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>71000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>58500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>45100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>45400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>45100</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2308400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2372400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2345700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2457200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2214700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2101500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1679600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1353300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>830200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>628600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>621000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>573400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>523500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>486900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>501600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>463100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>425900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>406300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>192400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>147400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>121900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>93900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>74300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>47900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31100</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E49" s="3">
         <v>182300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>295200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>482100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>462300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>624000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>592100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>525400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>518500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>509300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>256100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>244000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>260500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>263300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>44900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>56600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>60500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>64600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>68300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>73000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>24300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>27200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>30000</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>489700</v>
+      </c>
+      <c r="E52" s="3">
         <v>443400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>398600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>393200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>434700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>323400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>267000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>295700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>445400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>405300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>332000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>360900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>374100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>288900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>152700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>156000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>199200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>176100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>134700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>121800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>122600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>111100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>96700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>106400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>92500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>78900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>69700</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17652300</v>
+      </c>
+      <c r="E54" s="3">
         <v>17243900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17002800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17282300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17467700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18334600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18756000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18548700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11523000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10922600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10455700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6960600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6604300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5232800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5224200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4081900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4019100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3927000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2192700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2252400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2355400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1970500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1988300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1121200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1064200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>812400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>485800</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,126 +4579,130 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E57" s="3">
         <v>212300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>258600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>289800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>239000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>287100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>213600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>232700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>179600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>152900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>121600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>118400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>96700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>69400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6000</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1452600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1544400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1436000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>80200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4577,34 +4711,34 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>2000</v>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Z58" s="3">
         <v>2000</v>
@@ -4616,357 +4750,372 @@
         <v>2000</v>
       </c>
       <c r="AC58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD58" s="3">
         <v>1900</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4904100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4903500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5241000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6681300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6500800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6567000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6862900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6188300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5704000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4924700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4514400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3654100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2890200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2375300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2262300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1979600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1663600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1371000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1148500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>921400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>744000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>738400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>627000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>438500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>323700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>276700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>255900</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6575700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6660200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6935700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7051400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6739800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6854100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7176400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6421000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5883600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5077600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4636100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3772500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2986900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2428600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2362400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2051700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1721800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1410100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1186500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>946500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>777900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>752300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>637700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>449800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>333800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>288100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>263800</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3391700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3340200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3338800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4148000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4177300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4175400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3475700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3503500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1282500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1757600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1840400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1920900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2109200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1374800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1356700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>446600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>439600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>582700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1062800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1116400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1145800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>745700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>727000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>674400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>624800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>355000</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1064600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1051800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>917500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1126800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1115800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1013800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>679500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>813800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>758000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>647000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>559000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>494400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>615700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>462400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>332500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>324100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>418800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>400200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>182800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>161300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>200200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>177900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>148500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>208100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>179600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>157100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>142600</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11140800</v>
+      </c>
+      <c r="E66" s="3">
         <v>11150600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11287100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12385100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12094500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12073400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11357300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10761500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7962900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7518900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7072800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6219300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5750500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4312200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4061700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2829400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2585700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2397500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2435800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2227300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2126800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1681400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1519300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1340700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1138200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>800200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>406400</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5585,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="3">
         <v>205100</v>
@@ -5597,10 +5765,13 @@
         <v>205100</v>
       </c>
       <c r="AD70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8323400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8645000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8733100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9159800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8594600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7661400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7195400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6577700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-843800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-670100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-578000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-505000</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6511500</v>
+      </c>
+      <c r="E76" s="3">
         <v>6093300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5715700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4897200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5373200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6261200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7398700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7787300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3560200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3403700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3382900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>741200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>853800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>920600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1162400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1252500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1433400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1529500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-243100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>228600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>289100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>469000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-424600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-279000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-192800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-125700</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E81" s="3">
         <v>88100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>426800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-565300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-933100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-579800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-617600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-573000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-433400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-422700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-523600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-420000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-393000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-281500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-283800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-207600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-281100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-690400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-276600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-218300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-250700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-215600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-262700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-132700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-92100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-73100</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6445,21 +6644,21 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>11</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="3">
         <v>38200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>11</v>
       </c>
@@ -6472,32 +6671,35 @@
       <c r="V83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>11</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB83" s="3">
         <v>9000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8800</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>595500</v>
+      </c>
+      <c r="E89" s="3">
         <v>605500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>319700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-166300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-485500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-723700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-304800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>132400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>318300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>185400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>296000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>298100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-223700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>380800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-265300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-324400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>112300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-188800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-94400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-38200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-89800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-65400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-65800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-42100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7059,7 +7280,7 @@
         <v>-50800</v>
       </c>
       <c r="G91" s="3">
-        <v>-43800</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -7079,21 +7300,21 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>11</v>
       </c>
@@ -7106,32 +7327,35 @@
       <c r="V91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>11</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7400</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="AD91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3193900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-673800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>51500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-402100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-947500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1130700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1775500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-341900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-504300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-667400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>91300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-163700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-147100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-143700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-157700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>29400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-157100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-51100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-50100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>12900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>59200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-513700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>474000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>297600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>142400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>386000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6835200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>138800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>41600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2198600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>747700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>811600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1045000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>989800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-983100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1527900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-149800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>151700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>545300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>927400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>69500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>270000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>357000</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E101" s="3">
         <v>49500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>109100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-124900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-119700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-33000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-46300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>59000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>60500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>15300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-17300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2671100</v>
+      </c>
+      <c r="E102" s="3">
         <v>40500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-219200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1255100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1687800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6523100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-859700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-190800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2068300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>855400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1006400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-447300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>896700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1225800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1420700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-648000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>273600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>299300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-110600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>842800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-69600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>194300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>286700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-31900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-18000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3310200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3095700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3041100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3451600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3156000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2942600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2899600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3222100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2688900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2280500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1763600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1566600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1212200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>882000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>714900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>777200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>610100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>436200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>351900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>283200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>204900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>183800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>155000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>124600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>94100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>101500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>93900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>88500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1868900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1644800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1624400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1754300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1928200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1852400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1729500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1911400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1680200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1349700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1118200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1032800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>804600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>681200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>508100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>512400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>407000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>338700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>312400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>291200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>199300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>175200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>146500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>101100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>83300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>75700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>66800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>63200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1441300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1450900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1416700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1697300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1227800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1090200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1170100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1310700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1008700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>930800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>645400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>533800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>407600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>206800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>264800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>203100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>97500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-8000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>23500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>10800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>25800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>27100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>25300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E12" s="3">
         <v>283300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>320500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>244200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>421000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>370900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>340400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>286600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>231400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>172600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>141100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>109500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>104300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>63900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>48800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>43600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>26600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>17300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>6100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>5800</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1274,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>117900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-22000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>177300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
@@ -1303,8 +1323,8 @@
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1380,8 +1403,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
@@ -1398,14 +1421,14 @@
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
         <v>11000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10100</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
@@ -1431,20 +1454,23 @@
       <c r="AA15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="3">
         <v>2100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2000</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3437900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2811800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2915900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2909000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3651600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3779300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3397600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3664200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3147400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2614600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2112100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1923900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1517600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1254800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>982600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1007300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>797600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>670700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>591100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>608200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>451100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>403300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>353100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>315700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>254800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>184000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>162000</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>143400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="E18" s="3">
         <v>283900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>125200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>542600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-495600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-836700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-498000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-442100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-458500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-334100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-348500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-357300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-305400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-372800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-267700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-230100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-187500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-234500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-239200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-325000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-246200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-219500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-198100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-191100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-160700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-82500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-68100</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-52900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E20" s="3">
         <v>117900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-153900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-21400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-89600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-28900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>51000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-19100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-432700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>62900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>40800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-53200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="E21" s="3">
         <v>393600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>278300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>384000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-476300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-844500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-402800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-258200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-420100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-331200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-287800</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-318400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-193600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-193500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-108900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-250100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-646400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-287600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-171100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-244000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-193200</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-73900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-59400</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="E22" s="3">
         <v>10400</v>
       </c>
       <c r="F22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>9900</v>
       </c>
       <c r="W22" s="3">
         <v>9900</v>
       </c>
       <c r="X22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2300</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="E23" s="3">
         <v>391400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>147700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>377800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-504800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-869500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-504100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-513100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-471400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-359100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-371700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-481800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-379800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-365200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-256500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-245200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-177700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-263700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-682000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-272000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-215300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-250300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-216300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-253400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-134900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-89700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-70500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-68000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-56800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E24" s="3">
         <v>62200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-43500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>64800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>81800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>105600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="E26" s="3">
         <v>329200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>85800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>421300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-570100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-934200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-585900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-618700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-572400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-434300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-422700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-526000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-426200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-279700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-281200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-205000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-279000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-689200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-275000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-217300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-250100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-215600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-262200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-132800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-91900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-72400</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-60300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E27" s="3">
         <v>321600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>88100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>426800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-565300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-933100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-579800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-617600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-573000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-433400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-422700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-523600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-420000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-281500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-283800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-207600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-281100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-690400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-276600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-218300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-250700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-215600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-262700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-132700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-73100</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AE27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-117900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>153900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>21400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>89600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>28900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>19100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>432700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-62900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-40800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>27800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>53200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
-      <c r="AD32" s="3" t="s">
+      <c r="AE32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E33" s="3">
         <v>321600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>88100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>426800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-565300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-933100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-579800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-617600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-573000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-433400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-422700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-523600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-420000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-281500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-283800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-207600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-281100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-690400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-276600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-218300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-250700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-215600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-262700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-132700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-73100</v>
       </c>
-      <c r="AD33" s="3" t="s">
+      <c r="AE33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E35" s="3">
         <v>321600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>88100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>426800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-565300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-933100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-579800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-617600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-573000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-433400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-422700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-523600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-420000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-281500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-283800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-207600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-281100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-690400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-276600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-218300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-250700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-215600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-262700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-132700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-73100</v>
       </c>
-      <c r="AD35" s="3" t="s">
+      <c r="AE35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,160 +3354,164 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3219900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3524400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6082700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6029900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6253400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6493200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7683700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9247800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11126200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4645400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5752600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6166900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3509000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3432800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2599700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3119000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2297200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2308100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2362500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1002800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1209200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1477100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1172400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1347400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>581500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>651100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>456800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>170100</v>
       </c>
-      <c r="AE41" s="3" t="s">
+      <c r="AF41" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2762700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2174900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>506400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>864300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1042300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1287500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1116900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>911300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>706000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>962100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>309700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>126100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>102300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>700</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
@@ -3429,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>18000</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>11</v>
@@ -3440,637 +3530,661 @@
       <c r="AC42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AD42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2313000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2198800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2246600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2336000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2386500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2295000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2124600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1905400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1433700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1159100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>795400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>668400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>295900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>254600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>163600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>191800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>140500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>152700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>151500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>103000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>61000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>73100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>64100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>59200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>47900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>43200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>37800</v>
       </c>
-      <c r="AE43" s="3" t="s">
+      <c r="AF43" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E44" s="3">
         <v>98500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>107300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>109700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>127200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>139700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>117500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>128700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>99500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>92700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>34200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>25900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>37700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>19600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>13400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3900</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AF44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3562000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3479200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3497300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3348200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2773300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2769200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2765100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2953500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2609100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2530900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2075600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1913400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1654200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1487700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1222600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>970100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>849300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>757500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>652000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>566500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>513100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>424200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>383400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>281500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>218800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>163600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>122800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>98100</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AF45" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11973900</v>
+      </c>
+      <c r="E46" s="3">
         <v>11475800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12440300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12688000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12577900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12972100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13829900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15135400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16003700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9397100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9025900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8939000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5563100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5251000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4050600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4410100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3317800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3249700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3192500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1710700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1808500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1979300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1642300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1720700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>866800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>868200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>628600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>309900</v>
       </c>
-      <c r="AE46" s="3" t="s">
+      <c r="AF46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3182600</v>
+      </c>
+      <c r="E47" s="3">
         <v>3202100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1805500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1275300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1372000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1383900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1455900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1081800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>370600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>331900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>353500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>307600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>219100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>195200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>143200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>113800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>99100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>100400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>111000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>118200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>71000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>58500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>45100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>45400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>45100</v>
       </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AF47" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2243800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2308400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2372400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2345700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2457200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2214700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2101500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1679600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1353300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>830200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>628600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>621000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>573400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>523500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>486900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>501600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>463100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>425900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>406300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>192400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>147400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>121900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>93900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>74300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>47900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>32400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>31100</v>
       </c>
-      <c r="AE48" s="3" t="s">
+      <c r="AF48" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E49" s="3">
         <v>176300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>182300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>295200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>482100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>462300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>624000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>592100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>525400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>518500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>509300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>256100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>244000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>260500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>263300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>44900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>56600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>60500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>64600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>68300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>73000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>24300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>27200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>30000</v>
       </c>
-      <c r="AE49" s="3" t="s">
+      <c r="AF49" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>451400</v>
+      </c>
+      <c r="E52" s="3">
         <v>489700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>443400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>398600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>393200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>434700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>323400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>267000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>295700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>445400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>405300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>332000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>360900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>374100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>288900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>152700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>156000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>176100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>134700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>121800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>122600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>111100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>96700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>106400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>92500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>78900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>69700</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AF52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18025100</v>
+      </c>
+      <c r="E54" s="3">
         <v>17652300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17243900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17002800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17282300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17467700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18334600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18756000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18548700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11523000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10922600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10455700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6960600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6604300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5232800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5224200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4081900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4019100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3927000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2192700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2252400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2355400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1970500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1988300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1121200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1064200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>812400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>485800</v>
       </c>
-      <c r="AE54" s="3" t="s">
+      <c r="AF54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,123 +4710,127 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E57" s="3">
         <v>219000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>212300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>258600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>289800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>239000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>287100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>213600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>232700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>121600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>96700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>69400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6000</v>
       </c>
-      <c r="AE57" s="3" t="s">
+      <c r="AF57" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1452600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1544400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1436000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>80200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>11</v>
@@ -4704,8 +4838,8 @@
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4714,34 +4848,34 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>2000</v>
       </c>
       <c r="AA58" s="3">
         <v>2000</v>
@@ -4753,369 +4887,384 @@
         <v>2000</v>
       </c>
       <c r="AD58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1900</v>
       </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AF58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5274000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4904100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4903500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5241000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6681300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6500800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6567000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6862900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6188300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5704000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4924700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4514400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3654100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2890200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2375300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2262300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1979600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1663600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1371000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1148500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>921400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>744000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>738400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>627000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>438500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>323700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>276700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>255900</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AF59" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7030800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6575700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6660200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6935700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7051400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6739800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6854100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7176400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6421000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5883600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5077600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4636100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3772500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2986900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2428600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2362400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2051700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1721800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1410100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1186500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>946500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>777900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>752300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>637700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>449800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>333800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>288100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>263800</v>
       </c>
-      <c r="AE60" s="3" t="s">
+      <c r="AF60" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3439700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3391700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3340200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3338800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4148000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4177300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4175400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3475700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3503500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1282500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1757600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1840400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1920900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2109200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1374800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1356700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>446600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>439600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>582700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1062800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1116400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1145800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>745700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>727000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>674400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>624800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>355000</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>976500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1064600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1051800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>917500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1126800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1115800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1013800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>679500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>813800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>758000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>647000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>559000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>494400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>615700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>462400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>332500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>324100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>418800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>400200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>182800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>161300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>200200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>177900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>148500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>208100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>179600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>157100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>142600</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AF62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11557800</v>
+      </c>
+      <c r="E66" s="3">
         <v>11140800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11150600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11287100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12385100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12094500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12073400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11357300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10761500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7962900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7518900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7072800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6219300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5750500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4312200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4061700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2829400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2585700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2397500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2435800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2227300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2126800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1681400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1519300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1340700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1138200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>800200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>406400</v>
       </c>
-      <c r="AE66" s="3" t="s">
+      <c r="AF66" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5756,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="3">
         <v>205100</v>
@@ -5768,10 +5936,13 @@
         <v>205100</v>
       </c>
       <c r="AE70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+        <v>205100</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8472600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8323400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8645000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8733100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9159800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8594600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7661400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7195400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6577700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6004700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5571300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5148600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4625000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4205000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3812100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3530500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3246800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3039200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2758100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2067700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1791100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1572800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1322100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1106500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-843800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-670100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-578000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-505000</v>
       </c>
-      <c r="AE72" s="3" t="s">
+      <c r="AF72" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6467300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6511500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6093300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5715700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4897200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5373200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6261200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7398700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7787300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3560200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3403700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3382900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>741200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>853800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>920600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1162400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1252500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1433400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1529500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-243100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>228600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>289100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>469000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-424600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-279000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-192800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-125700</v>
       </c>
-      <c r="AE76" s="3" t="s">
+      <c r="AF76" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E81" s="3">
         <v>321600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>88100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>426800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-565300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-933100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-579800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-617600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-573000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-433400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-422700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-523600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-420000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-281500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-283800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-207600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-281100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-690400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-276600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-218300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-250700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-215600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-262700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-132700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-73100</v>
       </c>
-      <c r="AD81" s="3" t="s">
+      <c r="AE81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-64900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6647,20 +6846,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>11</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" s="3">
         <v>38200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34600</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>11</v>
@@ -6674,32 +6873,35 @@
       <c r="W83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>11</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC83" s="3">
         <v>9000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8800</v>
-      </c>
-      <c r="AD83" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AE83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>599800</v>
+      </c>
+      <c r="E89" s="3">
         <v>595500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>605500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>319700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-166300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-485500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-723700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-304800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>132400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>318300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>185400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>296000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>298100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-223700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>380800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-265300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-324400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>112300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-188800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-94400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-38200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-89800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-65400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-65800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-42100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-36500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7277,7 +7498,7 @@
         <v>-306300</v>
       </c>
       <c r="F91" s="3">
-        <v>-50800</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -7303,20 +7524,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" s="3">
         <v>-50100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42400</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>11</v>
@@ -7330,32 +7551,35 @@
       <c r="W91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>11</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-7400</v>
-      </c>
-      <c r="AD91" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-888300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3193900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-673800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>51500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-402100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-947500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1130700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1775500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-341900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1145500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-504300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-667400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>91300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-163700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-147100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-143700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-157700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>29400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-157100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-51100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-50100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>12900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>59200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-513700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>474000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>297600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>142400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>386000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6835200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>138800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>41600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2198600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>747700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>811600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1045000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>989800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-983100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1527900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-149800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>151700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>545300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>927400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>69500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>270000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>357000</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-71600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>49500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>109100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-124900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-119700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-46300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>59000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>60500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-51800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-218100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2671100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>40500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-219200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1255100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1720000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1687800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6523100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-859700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-190800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2068300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>855400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1006400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-447300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>896700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1225800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1231900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1420700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-648000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>273600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>299300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-110600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>842800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-69600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>194300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>286700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-31900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-18000</v>
       </c>
     </row>
